--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1996.659905872127</v>
+        <v>2177.790037376687</v>
       </c>
       <c r="AB2" t="n">
-        <v>2731.918169632463</v>
+        <v>2979.748406454436</v>
       </c>
       <c r="AC2" t="n">
-        <v>2471.187733793973</v>
+        <v>2695.365400645579</v>
       </c>
       <c r="AD2" t="n">
-        <v>1996659.905872127</v>
+        <v>2177790.037376687</v>
       </c>
       <c r="AE2" t="n">
-        <v>2731918.169632463</v>
+        <v>2979748.406454436</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.412971299259077e-07</v>
+        <v>1.068701692576645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.0011574074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>2471187.733793973</v>
+        <v>2695365.400645579</v>
       </c>
     </row>
     <row r="3">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1202.852584441011</v>
+        <v>1332.182509172671</v>
       </c>
       <c r="AB3" t="n">
-        <v>1645.795972143</v>
+        <v>1822.750880794453</v>
       </c>
       <c r="AC3" t="n">
-        <v>1488.723514450825</v>
+        <v>1648.790094978358</v>
       </c>
       <c r="AD3" t="n">
-        <v>1202852.584441011</v>
+        <v>1332182.509172671</v>
       </c>
       <c r="AE3" t="n">
-        <v>1645795.972143</v>
+        <v>1822750.880794453</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042227526984034e-06</v>
+        <v>1.502542337172052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.16087962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1488723.514450825</v>
+        <v>1648790.094978358</v>
       </c>
     </row>
     <row r="4">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1031.298801796895</v>
+        <v>1143.44733179216</v>
       </c>
       <c r="AB4" t="n">
-        <v>1411.068518310582</v>
+        <v>1564.51508469406</v>
       </c>
       <c r="AC4" t="n">
-        <v>1276.398119370123</v>
+        <v>1415.19996082157</v>
       </c>
       <c r="AD4" t="n">
-        <v>1031298.801796895</v>
+        <v>1143447.33179216</v>
       </c>
       <c r="AE4" t="n">
-        <v>1411068.518310582</v>
+        <v>1564515.08469406</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158345695901227e-06</v>
+        <v>1.669945769144207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.23842592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>1276398.119370123</v>
+        <v>1415199.96082157</v>
       </c>
     </row>
     <row r="5">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>948.6059574829958</v>
+        <v>1060.75439796971</v>
       </c>
       <c r="AB5" t="n">
-        <v>1297.924520569487</v>
+        <v>1451.370964483416</v>
       </c>
       <c r="AC5" t="n">
-        <v>1174.05242597484</v>
+        <v>1312.854156645061</v>
       </c>
       <c r="AD5" t="n">
-        <v>948605.9574829958</v>
+        <v>1060754.397969709</v>
       </c>
       <c r="AE5" t="n">
-        <v>1297924.520569487</v>
+        <v>1451370.964483416</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.220842584644538e-06</v>
+        <v>1.760045309644824e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.89583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1174052.42597484</v>
+        <v>1312854.156645061</v>
       </c>
     </row>
     <row r="6">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>909.2240054675086</v>
+        <v>1012.73916766729</v>
       </c>
       <c r="AB6" t="n">
-        <v>1244.040396412795</v>
+        <v>1385.674408101186</v>
       </c>
       <c r="AC6" t="n">
-        <v>1125.310927000819</v>
+        <v>1253.427587398254</v>
       </c>
       <c r="AD6" t="n">
-        <v>909224.0054675086</v>
+        <v>1012739.16766729</v>
       </c>
       <c r="AE6" t="n">
-        <v>1244040.396412795</v>
+        <v>1385674.408101186</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.260914119191719e-06</v>
+        <v>1.817815015024631e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.10300925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1125310.927000819</v>
+        <v>1253427.587398254</v>
       </c>
     </row>
     <row r="7">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>874.0954962428357</v>
+        <v>977.6959097886374</v>
       </c>
       <c r="AB7" t="n">
-        <v>1195.976020331147</v>
+        <v>1337.726676672187</v>
       </c>
       <c r="AC7" t="n">
-        <v>1081.833747513629</v>
+        <v>1210.055920161775</v>
       </c>
       <c r="AD7" t="n">
-        <v>874095.4962428357</v>
+        <v>977695.9097886374</v>
       </c>
       <c r="AE7" t="n">
-        <v>1195976.020331147</v>
+        <v>1337726.676672187</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.288591312778043e-06</v>
+        <v>1.857716240103476e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.58796296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>1081833.747513629</v>
+        <v>1210055.920161776</v>
       </c>
     </row>
     <row r="8">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>859.5059573242842</v>
+        <v>962.9357786694939</v>
       </c>
       <c r="AB8" t="n">
-        <v>1176.013969537754</v>
+        <v>1317.531214103947</v>
       </c>
       <c r="AC8" t="n">
-        <v>1063.776846831043</v>
+        <v>1191.787884196538</v>
       </c>
       <c r="AD8" t="n">
-        <v>859505.9573242841</v>
+        <v>962935.7786694939</v>
       </c>
       <c r="AE8" t="n">
-        <v>1176013.969537754</v>
+        <v>1317531.214103947</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.304031720585214e-06</v>
+        <v>1.879976126580099e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.30439814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>1063776.846831043</v>
+        <v>1191787.884196538</v>
       </c>
     </row>
     <row r="9">
@@ -6394,28 +6394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>842.3327573737821</v>
+        <v>937.2998926326516</v>
       </c>
       <c r="AB9" t="n">
-        <v>1152.516839737366</v>
+        <v>1282.455063852868</v>
       </c>
       <c r="AC9" t="n">
-        <v>1042.522250120375</v>
+        <v>1160.059352495736</v>
       </c>
       <c r="AD9" t="n">
-        <v>842332.7573737821</v>
+        <v>937299.8926326516</v>
       </c>
       <c r="AE9" t="n">
-        <v>1152516.839737366</v>
+        <v>1282455.063852868</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.319682201967992e-06</v>
+        <v>1.902538868655043e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.0324074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>1042522.250120375</v>
+        <v>1160059.352495736</v>
       </c>
     </row>
     <row r="10">
@@ -6500,28 +6500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>821.0391751557675</v>
+        <v>924.5542478469978</v>
       </c>
       <c r="AB10" t="n">
-        <v>1123.382021140131</v>
+        <v>1265.015910358973</v>
       </c>
       <c r="AC10" t="n">
-        <v>1016.168017719085</v>
+        <v>1144.284567335293</v>
       </c>
       <c r="AD10" t="n">
-        <v>821039.1751557675</v>
+        <v>924554.2478469978</v>
       </c>
       <c r="AE10" t="n">
-        <v>1123382.021140131</v>
+        <v>1265015.910358973</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.331236248626419e-06</v>
+        <v>1.91919592656272e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.82986111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1016168.017719085</v>
+        <v>1144284.567335293</v>
       </c>
     </row>
     <row r="11">
@@ -6606,28 +6606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>807.7673537422787</v>
+        <v>911.2824264335089</v>
       </c>
       <c r="AB11" t="n">
-        <v>1105.222929570758</v>
+        <v>1246.8568187896</v>
       </c>
       <c r="AC11" t="n">
-        <v>999.7420043626483</v>
+        <v>1127.858553978856</v>
       </c>
       <c r="AD11" t="n">
-        <v>807767.3537422788</v>
+        <v>911282.426433509</v>
       </c>
       <c r="AE11" t="n">
-        <v>1105222.929570758</v>
+        <v>1246856.8187896</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.343367997617768e-06</v>
+        <v>1.936685837365782e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.62152777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>999742.0043626484</v>
+        <v>1127858.553978856</v>
       </c>
     </row>
     <row r="12">
@@ -6712,28 +6712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>798.2722699567693</v>
+        <v>901.7873426479995</v>
       </c>
       <c r="AB12" t="n">
-        <v>1092.231337041891</v>
+        <v>1233.865226260734</v>
       </c>
       <c r="AC12" t="n">
-        <v>987.9903111909221</v>
+        <v>1116.10686080713</v>
       </c>
       <c r="AD12" t="n">
-        <v>798272.2699567693</v>
+        <v>901787.3426479995</v>
       </c>
       <c r="AE12" t="n">
-        <v>1092231.337041891</v>
+        <v>1233865.226260734</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.350563017582334e-06</v>
+        <v>1.94705864160829e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.50578703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>987990.311190922</v>
+        <v>1116106.86080713</v>
       </c>
     </row>
     <row r="13">
@@ -6818,28 +6818,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>788.8761078625297</v>
+        <v>883.7579022668275</v>
       </c>
       <c r="AB13" t="n">
-        <v>1079.375093535137</v>
+        <v>1209.196550528442</v>
       </c>
       <c r="AC13" t="n">
-        <v>976.3610495206016</v>
+        <v>1093.792528864024</v>
       </c>
       <c r="AD13" t="n">
-        <v>788876.1078625297</v>
+        <v>883757.9022668275</v>
       </c>
       <c r="AE13" t="n">
-        <v>1079375.093535137</v>
+        <v>1209196.550528442</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.358335739879821e-06</v>
+        <v>1.958264298746181e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.37268518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>976361.0495206015</v>
+        <v>1093792.528864024</v>
       </c>
     </row>
     <row r="14">
@@ -6924,28 +6924,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>783.7657011699156</v>
+        <v>878.6474955742135</v>
       </c>
       <c r="AB14" t="n">
-        <v>1072.382809643071</v>
+        <v>1202.204266636375</v>
       </c>
       <c r="AC14" t="n">
-        <v>970.036099389462</v>
+        <v>1087.467578732884</v>
       </c>
       <c r="AD14" t="n">
-        <v>783765.7011699156</v>
+        <v>878647.4955742136</v>
       </c>
       <c r="AE14" t="n">
-        <v>1072382.809643071</v>
+        <v>1202204.266636375</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.361119214756624e-06</v>
+        <v>1.96227713542394e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.32638888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>970036.099389462</v>
+        <v>1087467.578732884</v>
       </c>
     </row>
     <row r="15">
@@ -7030,28 +7030,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>773.9738554227715</v>
+        <v>868.8556498270693</v>
       </c>
       <c r="AB15" t="n">
-        <v>1058.985174306082</v>
+        <v>1188.806631299386</v>
       </c>
       <c r="AC15" t="n">
-        <v>957.9171155653361</v>
+        <v>1075.348594908759</v>
       </c>
       <c r="AD15" t="n">
-        <v>773973.8554227715</v>
+        <v>868855.6498270694</v>
       </c>
       <c r="AE15" t="n">
-        <v>1058985.174306082</v>
+        <v>1188806.631299386</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.366633646116328e-06</v>
+        <v>1.970227094879877e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.23958333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>957917.1155653361</v>
+        <v>1075348.594908759</v>
       </c>
     </row>
     <row r="16">
@@ -7136,28 +7136,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>766.1707911789791</v>
+        <v>861.0525855832771</v>
       </c>
       <c r="AB16" t="n">
-        <v>1048.308677560827</v>
+        <v>1178.130134554131</v>
       </c>
       <c r="AC16" t="n">
-        <v>948.2595686848906</v>
+        <v>1065.691048028313</v>
       </c>
       <c r="AD16" t="n">
-        <v>766170.7911789791</v>
+        <v>861052.585583277</v>
       </c>
       <c r="AE16" t="n">
-        <v>1048308.677560827</v>
+        <v>1178130.134554131</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.37209555908213e-06</v>
+        <v>1.978101340436233e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.15277777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>948259.5686848906</v>
+        <v>1065691.048028313</v>
       </c>
     </row>
     <row r="17">
@@ -7242,28 +7242,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>758.6503860261586</v>
+        <v>853.5321804304565</v>
       </c>
       <c r="AB17" t="n">
-        <v>1038.018927453878</v>
+        <v>1167.840384447182</v>
       </c>
       <c r="AC17" t="n">
-        <v>938.951857886394</v>
+        <v>1056.383337229816</v>
       </c>
       <c r="AD17" t="n">
-        <v>758650.3860261586</v>
+        <v>853532.1804304565</v>
       </c>
       <c r="AE17" t="n">
-        <v>1038018.927453878</v>
+        <v>1167840.384447182</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.3739862212626e-06</v>
+        <v>1.980827040821126e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22.11805555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>938951.857886394</v>
+        <v>1056383.337229816</v>
       </c>
     </row>
     <row r="18">
@@ -7348,28 +7348,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>750.01385911881</v>
+        <v>844.895653523108</v>
       </c>
       <c r="AB18" t="n">
-        <v>1026.202050322568</v>
+        <v>1156.023507315872</v>
       </c>
       <c r="AC18" t="n">
-        <v>928.2627669234046</v>
+        <v>1045.694246266827</v>
       </c>
       <c r="AD18" t="n">
-        <v>750013.85911881</v>
+        <v>844895.653523108</v>
       </c>
       <c r="AE18" t="n">
-        <v>1026202.050322568</v>
+        <v>1156023.507315872</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.379868281379617e-06</v>
+        <v>1.989306997574125e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>22.02546296296297</v>
       </c>
       <c r="AH18" t="n">
-        <v>928262.7669234045</v>
+        <v>1045694.246266827</v>
       </c>
     </row>
     <row r="19">
@@ -7454,28 +7454,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>745.3473001721713</v>
+        <v>840.2290945764693</v>
       </c>
       <c r="AB19" t="n">
-        <v>1019.817058497726</v>
+        <v>1149.63851549103</v>
       </c>
       <c r="AC19" t="n">
-        <v>922.4871497569334</v>
+        <v>1039.918629100356</v>
       </c>
       <c r="AD19" t="n">
-        <v>745347.3001721713</v>
+        <v>840229.0945764693</v>
       </c>
       <c r="AE19" t="n">
-        <v>1019817.058497726</v>
+        <v>1149638.51549103</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.38102368604546e-06</v>
+        <v>1.990972703364893e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22.00810185185185</v>
       </c>
       <c r="AH19" t="n">
-        <v>922487.1497569333</v>
+        <v>1039918.629100356</v>
       </c>
     </row>
     <row r="20">
@@ -7560,28 +7560,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>729.936134199302</v>
+        <v>833.3658660359607</v>
       </c>
       <c r="AB20" t="n">
-        <v>998.7308213209875</v>
+        <v>1140.247943417632</v>
       </c>
       <c r="AC20" t="n">
-        <v>903.4133534616234</v>
+        <v>1031.424280045893</v>
       </c>
       <c r="AD20" t="n">
-        <v>729936.1341993021</v>
+        <v>833365.8660359607</v>
       </c>
       <c r="AE20" t="n">
-        <v>998730.8213209875</v>
+        <v>1140247.943417632</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.383702124134459e-06</v>
+        <v>1.994834112243491e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.9675925925926</v>
       </c>
       <c r="AH20" t="n">
-        <v>903413.3534616234</v>
+        <v>1031424.280045893</v>
       </c>
     </row>
     <row r="21">
@@ -7666,28 +7666,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>722.1871359680131</v>
+        <v>825.6168678046718</v>
       </c>
       <c r="AB21" t="n">
-        <v>988.1283000792632</v>
+        <v>1129.645422175908</v>
       </c>
       <c r="AC21" t="n">
-        <v>893.8227219664772</v>
+        <v>1021.833648550746</v>
       </c>
       <c r="AD21" t="n">
-        <v>722187.1359680131</v>
+        <v>825616.8678046718</v>
       </c>
       <c r="AE21" t="n">
-        <v>988128.3000792633</v>
+        <v>1129645.422175908</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.386275525435654e-06</v>
+        <v>1.998544093322928e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.9212962962963</v>
       </c>
       <c r="AH21" t="n">
-        <v>893822.7219664771</v>
+        <v>1021833.648550746</v>
       </c>
     </row>
     <row r="22">
@@ -7772,28 +7772,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>719.0599047061933</v>
+        <v>822.4896365428521</v>
       </c>
       <c r="AB22" t="n">
-        <v>983.8494843031355</v>
+        <v>1125.36660639978</v>
       </c>
       <c r="AC22" t="n">
-        <v>889.9522703626673</v>
+        <v>1017.963196946936</v>
       </c>
       <c r="AD22" t="n">
-        <v>719059.9047061933</v>
+        <v>822489.636542852</v>
       </c>
       <c r="AE22" t="n">
-        <v>983849.4843031354</v>
+        <v>1125366.60639978</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.385907896678341e-06</v>
+        <v>1.998014096025865e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>889952.2703626673</v>
+        <v>1017963.196946936</v>
       </c>
     </row>
     <row r="23">
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>720.1642510245492</v>
+        <v>823.5939828612079</v>
       </c>
       <c r="AB23" t="n">
-        <v>985.3604996562309</v>
+        <v>1126.877621752876</v>
       </c>
       <c r="AC23" t="n">
-        <v>891.3190765311867</v>
+        <v>1019.330003115456</v>
       </c>
       <c r="AD23" t="n">
-        <v>720164.2510245492</v>
+        <v>823593.9828612079</v>
       </c>
       <c r="AE23" t="n">
-        <v>985360.4996562309</v>
+        <v>1126877.621752876</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.385907896678341e-06</v>
+        <v>1.998014096025865e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21.93287037037037</v>
       </c>
       <c r="AH23" t="n">
-        <v>891319.0765311867</v>
+        <v>1019330.003115456</v>
       </c>
     </row>
   </sheetData>
@@ -8175,28 +8175,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1503.884084032907</v>
+        <v>1663.644449868821</v>
       </c>
       <c r="AB2" t="n">
-        <v>2057.680550457097</v>
+        <v>2276.271731123702</v>
       </c>
       <c r="AC2" t="n">
-        <v>1861.298406694261</v>
+        <v>2059.027551872696</v>
       </c>
       <c r="AD2" t="n">
-        <v>1503884.084032907</v>
+        <v>1663644.449868821</v>
       </c>
       <c r="AE2" t="n">
-        <v>2057680.550457096</v>
+        <v>2276271.731123703</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.762812105934822e-07</v>
+        <v>1.282842727527301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.87962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1861298.406694261</v>
+        <v>2059027.551872696</v>
       </c>
     </row>
     <row r="3">
@@ -8281,28 +8281,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>999.0612007212849</v>
+        <v>1116.734538290735</v>
       </c>
       <c r="AB3" t="n">
-        <v>1366.959610296348</v>
+        <v>1527.965462140134</v>
       </c>
       <c r="AC3" t="n">
-        <v>1236.498903629526</v>
+        <v>1382.138582946473</v>
       </c>
       <c r="AD3" t="n">
-        <v>999061.2007212848</v>
+        <v>1116734.538290735</v>
       </c>
       <c r="AE3" t="n">
-        <v>1366959.610296348</v>
+        <v>1527965.462140134</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.154013838069078e-06</v>
+        <v>1.689432846140951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.24537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1236498.903629526</v>
+        <v>1382138.582946473</v>
       </c>
     </row>
     <row r="4">
@@ -8387,28 +8387,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>871.3238743759425</v>
+        <v>980.6650397364103</v>
       </c>
       <c r="AB4" t="n">
-        <v>1192.183765017537</v>
+        <v>1341.789171255498</v>
       </c>
       <c r="AC4" t="n">
-        <v>1078.403419724685</v>
+        <v>1213.730695963802</v>
       </c>
       <c r="AD4" t="n">
-        <v>871323.8743759425</v>
+        <v>980665.0397364104</v>
       </c>
       <c r="AE4" t="n">
-        <v>1192183.765017537</v>
+        <v>1341789.171255498</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.258000584741279e-06</v>
+        <v>1.841665531396532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.99421296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>1078403.419724685</v>
+        <v>1213730.695963802</v>
       </c>
     </row>
     <row r="5">
@@ -8493,28 +8493,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>814.6921941781162</v>
+        <v>923.9480186840121</v>
       </c>
       <c r="AB5" t="n">
-        <v>1114.69780175747</v>
+        <v>1264.186440873233</v>
       </c>
       <c r="AC5" t="n">
-        <v>1008.312608045927</v>
+        <v>1143.534261253104</v>
       </c>
       <c r="AD5" t="n">
-        <v>814692.1941781162</v>
+        <v>923948.0186840121</v>
       </c>
       <c r="AE5" t="n">
-        <v>1114697.80175747</v>
+        <v>1264186.440873233</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.312167139826014e-06</v>
+        <v>1.920963330351502e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1008312.608045927</v>
+        <v>1143534.261253105</v>
       </c>
     </row>
     <row r="6">
@@ -8599,28 +8599,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>785.5920559375876</v>
+        <v>886.4305463970318</v>
       </c>
       <c r="AB6" t="n">
-        <v>1074.881708809286</v>
+        <v>1212.853380136124</v>
       </c>
       <c r="AC6" t="n">
-        <v>972.2965071264802</v>
+        <v>1097.100355786342</v>
       </c>
       <c r="AD6" t="n">
-        <v>785592.0559375876</v>
+        <v>886430.5463970318</v>
       </c>
       <c r="AE6" t="n">
-        <v>1074881.708809286</v>
+        <v>1212853.380136124</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.345851456929862e-06</v>
+        <v>1.970275903422797e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.36226851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>972296.5071264801</v>
+        <v>1097100.355786342</v>
       </c>
     </row>
     <row r="7">
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>771.5855347238264</v>
+        <v>864.1772833374108</v>
       </c>
       <c r="AB7" t="n">
-        <v>1055.717368560513</v>
+        <v>1182.405483873273</v>
       </c>
       <c r="AC7" t="n">
-        <v>954.9611846137295</v>
+        <v>1069.558364008926</v>
       </c>
       <c r="AD7" t="n">
-        <v>771585.5347238265</v>
+        <v>864177.2833374108</v>
       </c>
       <c r="AE7" t="n">
-        <v>1055717.368560513</v>
+        <v>1182405.483873273</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.361389706432604e-06</v>
+        <v>1.993023316162137e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.09606481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>954961.1846137295</v>
+        <v>1069558.364008926</v>
       </c>
     </row>
     <row r="8">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>741.7692610323203</v>
+        <v>842.693002837785</v>
       </c>
       <c r="AB8" t="n">
-        <v>1014.921427494635</v>
+        <v>1153.009743474123</v>
       </c>
       <c r="AC8" t="n">
-        <v>918.0587509057165</v>
+        <v>1042.968111816291</v>
       </c>
       <c r="AD8" t="n">
-        <v>741769.2610323203</v>
+        <v>842693.0028377851</v>
       </c>
       <c r="AE8" t="n">
-        <v>1014921.427494635</v>
+        <v>1153009.743474123</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.38388213753098e-06</v>
+        <v>2.025951389148454e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.7199074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>918058.7509057164</v>
+        <v>1042968.111816291</v>
       </c>
     </row>
     <row r="9">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>727.3167905803667</v>
+        <v>828.0699401852393</v>
       </c>
       <c r="AB9" t="n">
-        <v>995.1469198242754</v>
+        <v>1133.001824028916</v>
       </c>
       <c r="AC9" t="n">
-        <v>900.17149449372</v>
+        <v>1024.869720121643</v>
       </c>
       <c r="AD9" t="n">
-        <v>727316.7905803667</v>
+        <v>828069.9401852393</v>
       </c>
       <c r="AE9" t="n">
-        <v>995146.9198242754</v>
+        <v>1133001.824028916</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.397627512091099e-06</v>
+        <v>2.04607410041787e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.49421296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>900171.49449372</v>
+        <v>1024869.720121643</v>
       </c>
     </row>
     <row r="10">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>716.0583907682486</v>
+        <v>808.5647985272615</v>
       </c>
       <c r="AB10" t="n">
-        <v>979.74268051579</v>
+        <v>1106.314028706352</v>
       </c>
       <c r="AC10" t="n">
-        <v>886.2374141648507</v>
+        <v>1000.728970528109</v>
       </c>
       <c r="AD10" t="n">
-        <v>716058.3907682486</v>
+        <v>808564.7985272615</v>
       </c>
       <c r="AE10" t="n">
-        <v>979742.68051579</v>
+        <v>1106314.028706352</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.406646216347935e-06</v>
+        <v>2.059277144175668e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.34953703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>886237.4141648507</v>
+        <v>1000728.970528109</v>
       </c>
     </row>
     <row r="11">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>702.9142227255558</v>
+        <v>795.4206304845686</v>
       </c>
       <c r="AB11" t="n">
-        <v>961.7582499200093</v>
+        <v>1088.329598110571</v>
       </c>
       <c r="AC11" t="n">
-        <v>869.9693923838247</v>
+        <v>984.4609487470826</v>
       </c>
       <c r="AD11" t="n">
-        <v>702914.2227255558</v>
+        <v>795420.6304845687</v>
       </c>
       <c r="AE11" t="n">
-        <v>961758.2499200094</v>
+        <v>1088329.598110572</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.415447602429909e-06</v>
+        <v>2.072162042300749e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.21064814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>869969.3923838247</v>
+        <v>984460.9487470826</v>
       </c>
     </row>
     <row r="12">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>694.6732728318632</v>
+        <v>787.1796805908759</v>
       </c>
       <c r="AB12" t="n">
-        <v>950.4826187104092</v>
+        <v>1077.053966900971</v>
       </c>
       <c r="AC12" t="n">
-        <v>859.7698915914207</v>
+        <v>974.2614479546786</v>
       </c>
       <c r="AD12" t="n">
-        <v>694673.2728318631</v>
+        <v>787179.6805908759</v>
       </c>
       <c r="AE12" t="n">
-        <v>950482.6187104092</v>
+        <v>1077053.966900971</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.421641170413519e-06</v>
+        <v>2.081229192833212e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.11805555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>859769.8915914206</v>
+        <v>974261.4479546786</v>
       </c>
     </row>
     <row r="13">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>681.6063404733521</v>
+        <v>774.1127482323651</v>
       </c>
       <c r="AB13" t="n">
-        <v>932.6038653851242</v>
+        <v>1059.175213575686</v>
       </c>
       <c r="AC13" t="n">
-        <v>843.597461390513</v>
+        <v>958.0890177537709</v>
       </c>
       <c r="AD13" t="n">
-        <v>681606.3404733521</v>
+        <v>774112.7482323651</v>
       </c>
       <c r="AE13" t="n">
-        <v>932603.8653851242</v>
+        <v>1059175.213575686</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.429138647446311e-06</v>
+        <v>2.092205217161985e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.00231481481482</v>
       </c>
       <c r="AH13" t="n">
-        <v>843597.461390513</v>
+        <v>958089.0177537709</v>
       </c>
     </row>
     <row r="14">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>662.4520847129787</v>
+        <v>763.2904856638718</v>
       </c>
       <c r="AB14" t="n">
-        <v>906.3961676276558</v>
+        <v>1044.367716484946</v>
       </c>
       <c r="AC14" t="n">
-        <v>819.8909895242828</v>
+        <v>944.6947274029179</v>
       </c>
       <c r="AD14" t="n">
-        <v>662452.0847129787</v>
+        <v>763290.4856638717</v>
       </c>
       <c r="AE14" t="n">
-        <v>906396.1676276558</v>
+        <v>1044367.716484946</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.43402830638074e-06</v>
+        <v>2.099363493898141e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>819890.9895242827</v>
+        <v>944694.7274029179</v>
       </c>
     </row>
     <row r="15">
@@ -9553,28 +9553,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>655.0001201559132</v>
+        <v>755.8385211068062</v>
       </c>
       <c r="AB15" t="n">
-        <v>896.2000609632053</v>
+        <v>1034.171609820495</v>
       </c>
       <c r="AC15" t="n">
-        <v>810.6679849695616</v>
+        <v>935.4717228481969</v>
       </c>
       <c r="AD15" t="n">
-        <v>655000.1201559133</v>
+        <v>755838.5211068062</v>
       </c>
       <c r="AE15" t="n">
-        <v>896200.0609632053</v>
+        <v>1034171.609820495</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.436962101741398e-06</v>
+        <v>2.103658459939834e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.88078703703704</v>
       </c>
       <c r="AH15" t="n">
-        <v>810667.9849695617</v>
+        <v>935471.7228481969</v>
       </c>
     </row>
     <row r="16">
@@ -9659,28 +9659,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>654.4907173107111</v>
+        <v>755.3291182616041</v>
       </c>
       <c r="AB16" t="n">
-        <v>895.5030735171322</v>
+        <v>1033.474622374422</v>
       </c>
       <c r="AC16" t="n">
-        <v>810.0375170271138</v>
+        <v>934.8412549057491</v>
       </c>
       <c r="AD16" t="n">
-        <v>654490.7173107112</v>
+        <v>755329.1182616041</v>
       </c>
       <c r="AE16" t="n">
-        <v>895503.0735171322</v>
+        <v>1033474.622374422</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.435603863148501e-06</v>
+        <v>2.101670049735346e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.89814814814815</v>
       </c>
       <c r="AH16" t="n">
-        <v>810037.5170271138</v>
+        <v>934841.2549057491</v>
       </c>
     </row>
   </sheetData>
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>726.2739559414897</v>
+        <v>834.9306573662761</v>
       </c>
       <c r="AB2" t="n">
-        <v>993.7200674647465</v>
+        <v>1142.388959949491</v>
       </c>
       <c r="AC2" t="n">
-        <v>898.8808189207846</v>
+        <v>1033.360960964886</v>
       </c>
       <c r="AD2" t="n">
-        <v>726273.9559414897</v>
+        <v>834930.6573662761</v>
       </c>
       <c r="AE2" t="n">
-        <v>993720.0674647465</v>
+        <v>1142388.959949491</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.301594192323039e-06</v>
+        <v>2.013726875089145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.95601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>898880.8189207846</v>
+        <v>1033360.960964886</v>
       </c>
     </row>
     <row r="3">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>583.292925446509</v>
+        <v>676.5003902573872</v>
       </c>
       <c r="AB3" t="n">
-        <v>798.0871136636363</v>
+        <v>925.6176790410152</v>
       </c>
       <c r="AC3" t="n">
-        <v>721.9187996578772</v>
+        <v>837.2780268659118</v>
       </c>
       <c r="AD3" t="n">
-        <v>583292.925446509</v>
+        <v>676500.3902573872</v>
       </c>
       <c r="AE3" t="n">
-        <v>798087.1136636363</v>
+        <v>925617.6790410152</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.4896493942134e-06</v>
+        <v>2.304671484615299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.55324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>721918.7996578772</v>
+        <v>837278.0268659118</v>
       </c>
     </row>
     <row r="4">
@@ -10168,28 +10168,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>532.3946826966782</v>
+        <v>625.5168066529848</v>
       </c>
       <c r="AB4" t="n">
-        <v>728.4458924613252</v>
+        <v>855.8596907165065</v>
       </c>
       <c r="AC4" t="n">
-        <v>658.9240388650469</v>
+        <v>774.1776430411427</v>
       </c>
       <c r="AD4" t="n">
-        <v>532394.6826966782</v>
+        <v>625516.8066529848</v>
       </c>
       <c r="AE4" t="n">
-        <v>728445.8924613253</v>
+        <v>855859.6907165066</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.557851232423154e-06</v>
+        <v>2.410188146677492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.52314814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>658924.0388650469</v>
+        <v>774177.6430411427</v>
       </c>
     </row>
     <row r="5">
@@ -10274,28 +10274,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>507.2270964569586</v>
+        <v>592.5820211875764</v>
       </c>
       <c r="AB5" t="n">
-        <v>694.010490652598</v>
+        <v>810.7968642625461</v>
       </c>
       <c r="AC5" t="n">
-        <v>627.7751034745547</v>
+        <v>733.4155494978741</v>
       </c>
       <c r="AD5" t="n">
-        <v>507227.0964569586</v>
+        <v>592582.0211875763</v>
       </c>
       <c r="AE5" t="n">
-        <v>694010.4906525981</v>
+        <v>810796.8642625462</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.586708187967904e-06</v>
+        <v>2.454833418803363e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.11226851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>627775.1034745547</v>
+        <v>733415.5494978741</v>
       </c>
     </row>
     <row r="6">
@@ -10380,28 +10380,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>504.4713068446845</v>
+        <v>589.8262315753024</v>
       </c>
       <c r="AB6" t="n">
-        <v>690.2398977282276</v>
+        <v>807.0262713381755</v>
       </c>
       <c r="AC6" t="n">
-        <v>624.3643706468255</v>
+        <v>730.004816670145</v>
       </c>
       <c r="AD6" t="n">
-        <v>504471.3068446845</v>
+        <v>589826.2315753023</v>
       </c>
       <c r="AE6" t="n">
-        <v>690239.8977282275</v>
+        <v>807026.2713381755</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.59137622489426e-06</v>
+        <v>2.462055448117841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.04861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>624364.3706468255</v>
+        <v>730004.816670145</v>
       </c>
     </row>
   </sheetData>
@@ -10677,28 +10677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>955.8285359263672</v>
+        <v>1076.150518602536</v>
       </c>
       <c r="AB2" t="n">
-        <v>1307.80677103338</v>
+        <v>1472.436615962154</v>
       </c>
       <c r="AC2" t="n">
-        <v>1182.991528324285</v>
+        <v>1331.909331912495</v>
       </c>
       <c r="AD2" t="n">
-        <v>955828.5359263672</v>
+        <v>1076150.518602536</v>
       </c>
       <c r="AE2" t="n">
-        <v>1307806.77103338</v>
+        <v>1472436.615962154</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.133259806528334e-06</v>
+        <v>1.712688710281105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.61805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1182991.528324285</v>
+        <v>1331909.331912495</v>
       </c>
     </row>
     <row r="3">
@@ -10783,28 +10783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>720.2332918649229</v>
+        <v>824.4270026630307</v>
       </c>
       <c r="AB3" t="n">
-        <v>985.4549643798971</v>
+        <v>1128.01739619597</v>
       </c>
       <c r="AC3" t="n">
-        <v>891.4045256742083</v>
+        <v>1020.360999085385</v>
       </c>
       <c r="AD3" t="n">
-        <v>720233.2918649229</v>
+        <v>824427.0026630308</v>
       </c>
       <c r="AE3" t="n">
-        <v>985454.9643798971</v>
+        <v>1128017.39619597</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.357475897216079e-06</v>
+        <v>2.051545135764562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>891404.5256742083</v>
+        <v>1020360.999085385</v>
       </c>
     </row>
     <row r="4">
@@ -10889,28 +10889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>655.1419668167099</v>
+        <v>751.2289607570527</v>
       </c>
       <c r="AB4" t="n">
-        <v>896.3941418223402</v>
+        <v>1027.864605990512</v>
       </c>
       <c r="AC4" t="n">
-        <v>810.8435430238951</v>
+        <v>929.766650611812</v>
       </c>
       <c r="AD4" t="n">
-        <v>655141.9668167098</v>
+        <v>751228.9607570528</v>
       </c>
       <c r="AE4" t="n">
-        <v>896394.1418223402</v>
+        <v>1027864.605990512</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.437975621446443e-06</v>
+        <v>2.17320388345495e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.33912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>810843.5430238951</v>
+        <v>929766.650611812</v>
       </c>
     </row>
     <row r="5">
@@ -10995,28 +10995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>615.674376840709</v>
+        <v>711.8466221270725</v>
       </c>
       <c r="AB5" t="n">
-        <v>842.3928440299931</v>
+        <v>973.9799528508141</v>
       </c>
       <c r="AC5" t="n">
-        <v>761.9960533015519</v>
+        <v>881.0246731401811</v>
       </c>
       <c r="AD5" t="n">
-        <v>615674.376840709</v>
+        <v>711846.6221270724</v>
       </c>
       <c r="AE5" t="n">
-        <v>842392.8440299931</v>
+        <v>973979.9528508141</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.480081384984804e-06</v>
+        <v>2.236838069927011e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.67939814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>761996.053301552</v>
+        <v>881024.6731401811</v>
       </c>
     </row>
     <row r="6">
@@ -11101,28 +11101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>595.2965348018117</v>
+        <v>683.4474040849814</v>
       </c>
       <c r="AB6" t="n">
-        <v>814.5109815454315</v>
+        <v>935.1228898405495</v>
       </c>
       <c r="AC6" t="n">
-        <v>736.7751966400773</v>
+        <v>845.8760736873857</v>
       </c>
       <c r="AD6" t="n">
-        <v>595296.5348018117</v>
+        <v>683447.4040849814</v>
       </c>
       <c r="AE6" t="n">
-        <v>814510.9815454315</v>
+        <v>935122.8898405496</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.502178211304523e-06</v>
+        <v>2.270232870265655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH6" t="n">
-        <v>736775.1966400773</v>
+        <v>845876.0736873857</v>
       </c>
     </row>
     <row r="7">
@@ -11207,28 +11207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>575.6597461163947</v>
+        <v>663.8106153995647</v>
       </c>
       <c r="AB7" t="n">
-        <v>787.6430609520688</v>
+        <v>908.2549692471865</v>
       </c>
       <c r="AC7" t="n">
-        <v>712.4715126787817</v>
+        <v>821.57238972609</v>
       </c>
       <c r="AD7" t="n">
-        <v>575659.7461163946</v>
+        <v>663810.6153995646</v>
       </c>
       <c r="AE7" t="n">
-        <v>787643.0609520688</v>
+        <v>908254.9692471866</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.521085207053153e-06</v>
+        <v>2.29880689890187e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.06597222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>712471.5126787816</v>
+        <v>821572.38972609</v>
       </c>
     </row>
     <row r="8">
@@ -11313,28 +11313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>551.7166036562268</v>
+        <v>647.8035080880185</v>
       </c>
       <c r="AB8" t="n">
-        <v>754.8829971411712</v>
+        <v>886.3533388397948</v>
       </c>
       <c r="AC8" t="n">
-        <v>682.8380233789578</v>
+        <v>801.7610201856482</v>
       </c>
       <c r="AD8" t="n">
-        <v>551716.6036562268</v>
+        <v>647803.5080880185</v>
       </c>
       <c r="AE8" t="n">
-        <v>754882.9971411712</v>
+        <v>886353.3388397947</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.533438550901184e-06</v>
+        <v>2.317476432949459e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.88657407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>682838.0233789578</v>
+        <v>801761.0201856482</v>
       </c>
     </row>
     <row r="9">
@@ -11419,28 +11419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>552.1768254089785</v>
+        <v>648.2637298407702</v>
       </c>
       <c r="AB9" t="n">
-        <v>755.5126928468371</v>
+        <v>886.9830345454604</v>
       </c>
       <c r="AC9" t="n">
-        <v>683.4076218102583</v>
+        <v>802.3306186169486</v>
       </c>
       <c r="AD9" t="n">
-        <v>552176.8254089785</v>
+        <v>648263.7298407702</v>
       </c>
       <c r="AE9" t="n">
-        <v>755512.6928468371</v>
+        <v>886983.0345454605</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.533206563223287e-06</v>
+        <v>2.3171258313711e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.89236111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>683407.6218102584</v>
+        <v>802330.6186169486</v>
       </c>
     </row>
   </sheetData>
@@ -11716,28 +11716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.5535726497045</v>
+        <v>683.6475317319473</v>
       </c>
       <c r="AB2" t="n">
-        <v>801.1802308997643</v>
+        <v>935.3967133161368</v>
       </c>
       <c r="AC2" t="n">
-        <v>724.7167141262065</v>
+        <v>846.1237638347766</v>
       </c>
       <c r="AD2" t="n">
-        <v>585553.5726497045</v>
+        <v>683647.5317319473</v>
       </c>
       <c r="AE2" t="n">
-        <v>801180.2308997643</v>
+        <v>935396.7133161369</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.442355847129549e-06</v>
+        <v>2.27962609418858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>724716.7141262065</v>
+        <v>846123.7638347766</v>
       </c>
     </row>
     <row r="3">
@@ -11822,28 +11822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>479.147768816107</v>
+        <v>569.7681676072291</v>
       </c>
       <c r="AB3" t="n">
-        <v>655.5911158018774</v>
+        <v>779.5819433177286</v>
       </c>
       <c r="AC3" t="n">
-        <v>593.0224198376557</v>
+        <v>705.1797367976134</v>
       </c>
       <c r="AD3" t="n">
-        <v>479147.768816107</v>
+        <v>569768.1676072291</v>
       </c>
       <c r="AE3" t="n">
-        <v>655591.1158018775</v>
+        <v>779581.9433177286</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.602470694311775e-06</v>
+        <v>2.532685687235618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.73726851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>593022.4198376556</v>
+        <v>705179.7367976133</v>
       </c>
     </row>
     <row r="4">
@@ -11928,28 +11928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.4995284754861</v>
+        <v>540.5612051380181</v>
       </c>
       <c r="AB4" t="n">
-        <v>625.9710383148806</v>
+        <v>739.6196887471094</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.2292409739778</v>
+        <v>669.0314237158373</v>
       </c>
       <c r="AD4" t="n">
-        <v>457499.5284754861</v>
+        <v>540561.2051380181</v>
       </c>
       <c r="AE4" t="n">
-        <v>625971.0383148806</v>
+        <v>739619.6887471094</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.636407738209227e-06</v>
+        <v>2.586322777543268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.26851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>566229.2409739777</v>
+        <v>669031.4237158373</v>
       </c>
     </row>
   </sheetData>
@@ -12225,28 +12225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1622.216109836335</v>
+        <v>1783.054988032109</v>
       </c>
       <c r="AB2" t="n">
-        <v>2219.587648601886</v>
+        <v>2439.654497459859</v>
       </c>
       <c r="AC2" t="n">
-        <v>2007.753318630151</v>
+        <v>2206.817296298882</v>
       </c>
       <c r="AD2" t="n">
-        <v>1622216.109836335</v>
+        <v>1783054.988032109</v>
       </c>
       <c r="AE2" t="n">
-        <v>2219587.648601886</v>
+        <v>2439654.497459859</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.399813245410884e-07</v>
+        <v>1.224597255987638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.0949074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>2007753.318630151</v>
+        <v>2206817.296298882</v>
       </c>
     </row>
     <row r="3">
@@ -12331,28 +12331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1043.375687200094</v>
+        <v>1162.014244334258</v>
       </c>
       <c r="AB3" t="n">
-        <v>1427.592645713819</v>
+        <v>1589.919153548529</v>
       </c>
       <c r="AC3" t="n">
-        <v>1291.345207245753</v>
+        <v>1438.179500999404</v>
       </c>
       <c r="AD3" t="n">
-        <v>1043375.687200094</v>
+        <v>1162014.244334258</v>
       </c>
       <c r="AE3" t="n">
-        <v>1427592.645713819</v>
+        <v>1589919.153548529</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.125072095225343e-06</v>
+        <v>1.640227181662565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.69675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1291345.207245754</v>
+        <v>1438179.500999404</v>
       </c>
     </row>
     <row r="4">
@@ -12437,28 +12437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>916.042103890915</v>
+        <v>1026.035886172047</v>
       </c>
       <c r="AB4" t="n">
-        <v>1253.369219468973</v>
+        <v>1403.867564969214</v>
       </c>
       <c r="AC4" t="n">
-        <v>1133.749420277601</v>
+        <v>1269.884414909054</v>
       </c>
       <c r="AD4" t="n">
-        <v>916042.1038909149</v>
+        <v>1026035.886172047</v>
       </c>
       <c r="AE4" t="n">
-        <v>1253369.219468973</v>
+        <v>1403867.564969214</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.230655287163365e-06</v>
+        <v>1.7941554695282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.31828703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1133749.420277601</v>
+        <v>1269884.414909054</v>
       </c>
     </row>
     <row r="5">
@@ -12543,28 +12543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>854.3177490961513</v>
+        <v>955.9226895794146</v>
       </c>
       <c r="AB5" t="n">
-        <v>1168.91523415243</v>
+        <v>1307.935596215246</v>
       </c>
       <c r="AC5" t="n">
-        <v>1057.355604787756</v>
+        <v>1183.108058611601</v>
       </c>
       <c r="AD5" t="n">
-        <v>854317.7490961512</v>
+        <v>955922.6895794147</v>
       </c>
       <c r="AE5" t="n">
-        <v>1168915.23415243</v>
+        <v>1307935.596215246</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288427222374735e-06</v>
+        <v>1.878380381756566e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.18402777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1057355.604787756</v>
+        <v>1183108.058611601</v>
       </c>
     </row>
     <row r="6">
@@ -12649,28 +12649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>813.7129331759444</v>
+        <v>915.4031250052284</v>
       </c>
       <c r="AB6" t="n">
-        <v>1113.357933652352</v>
+        <v>1252.494940367818</v>
       </c>
       <c r="AC6" t="n">
-        <v>1007.100615072245</v>
+        <v>1132.958581146802</v>
       </c>
       <c r="AD6" t="n">
-        <v>813712.9331759444</v>
+        <v>915403.1250052284</v>
       </c>
       <c r="AE6" t="n">
-        <v>1113357.933652352</v>
+        <v>1252494.940367818</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324501030941015e-06</v>
+        <v>1.930971892654054e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.52430555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1007100.615072245</v>
+        <v>1132958.581146802</v>
       </c>
     </row>
     <row r="7">
@@ -12755,28 +12755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>787.3911998225029</v>
+        <v>880.6072985078977</v>
       </c>
       <c r="AB7" t="n">
-        <v>1077.343376845254</v>
+        <v>1204.885755470646</v>
       </c>
       <c r="AC7" t="n">
-        <v>974.5232370200679</v>
+        <v>1089.893150036305</v>
       </c>
       <c r="AD7" t="n">
-        <v>787391.1998225029</v>
+        <v>880607.2985078976</v>
       </c>
       <c r="AE7" t="n">
-        <v>1077343.376845254</v>
+        <v>1204885.755470646</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.35282166274081e-06</v>
+        <v>1.972260153448201e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.0324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>974523.2370200679</v>
+        <v>1089893.150036305</v>
       </c>
     </row>
     <row r="8">
@@ -12861,28 +12861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>768.6847950372897</v>
+        <v>870.2896460120021</v>
       </c>
       <c r="AB8" t="n">
-        <v>1051.74844854979</v>
+        <v>1190.768688143058</v>
       </c>
       <c r="AC8" t="n">
-        <v>951.371052758416</v>
+        <v>1077.123395801034</v>
       </c>
       <c r="AD8" t="n">
-        <v>768684.7950372897</v>
+        <v>870289.6460120021</v>
       </c>
       <c r="AE8" t="n">
-        <v>1051748.44854979</v>
+        <v>1190768.688143058</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.362997707246821e-06</v>
+        <v>1.987095669208837e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.85879629629629</v>
       </c>
       <c r="AH8" t="n">
-        <v>951371.052758416</v>
+        <v>1077123.395801034</v>
       </c>
     </row>
     <row r="9">
@@ -12967,28 +12967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>754.5195932584157</v>
+        <v>856.1244442331281</v>
       </c>
       <c r="AB9" t="n">
-        <v>1032.366994551337</v>
+        <v>1171.387234144605</v>
       </c>
       <c r="AC9" t="n">
-        <v>933.8393375275339</v>
+        <v>1059.591680570152</v>
       </c>
       <c r="AD9" t="n">
-        <v>754519.5932584157</v>
+        <v>856124.4442331281</v>
       </c>
       <c r="AE9" t="n">
-        <v>1032366.994551337</v>
+        <v>1171387.234144605</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.376458083577522e-06</v>
+        <v>2.006719367304914e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.63888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>933839.3375275339</v>
+        <v>1059591.680570152</v>
       </c>
     </row>
     <row r="10">
@@ -13073,28 +13073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>741.5346216951501</v>
+        <v>842.9688804692703</v>
       </c>
       <c r="AB10" t="n">
-        <v>1014.600383601962</v>
+        <v>1153.387211420383</v>
       </c>
       <c r="AC10" t="n">
-        <v>917.7683469915721</v>
+        <v>1043.309554751539</v>
       </c>
       <c r="AD10" t="n">
-        <v>741534.6216951502</v>
+        <v>842968.8804692703</v>
       </c>
       <c r="AE10" t="n">
-        <v>1014600.383601962</v>
+        <v>1153387.211420383</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.388141690232571e-06</v>
+        <v>2.023752737252309e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>917768.3469915721</v>
+        <v>1043309.554751539</v>
       </c>
     </row>
     <row r="11">
@@ -13179,28 +13179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>729.6794455494145</v>
+        <v>822.8102033802377</v>
       </c>
       <c r="AB11" t="n">
-        <v>998.3796085859076</v>
+        <v>1125.805220089102</v>
       </c>
       <c r="AC11" t="n">
-        <v>903.0956599770491</v>
+        <v>1018.359949961348</v>
       </c>
       <c r="AD11" t="n">
-        <v>729679.4455494145</v>
+        <v>822810.2033802377</v>
       </c>
       <c r="AE11" t="n">
-        <v>998379.6085859076</v>
+        <v>1125805.220089102</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.397402429148094e-06</v>
+        <v>2.037253841542412e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.29745370370371</v>
       </c>
       <c r="AH11" t="n">
-        <v>903095.6599770491</v>
+        <v>1018359.949961348</v>
       </c>
     </row>
     <row r="12">
@@ -13285,28 +13285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>720.8178617879047</v>
+        <v>813.9486196187278</v>
       </c>
       <c r="AB12" t="n">
-        <v>986.2547987379257</v>
+        <v>1113.68041024112</v>
       </c>
       <c r="AC12" t="n">
-        <v>892.1280249636811</v>
+        <v>1007.39231494798</v>
       </c>
       <c r="AD12" t="n">
-        <v>720817.8617879046</v>
+        <v>813948.6196187278</v>
       </c>
       <c r="AE12" t="n">
-        <v>986254.7987379257</v>
+        <v>1113680.41024112</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.40289426269102e-06</v>
+        <v>2.045260310365611e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.21064814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>892128.0249636811</v>
+        <v>1007392.31494798</v>
       </c>
     </row>
     <row r="13">
@@ -13391,28 +13391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>712.2396935140598</v>
+        <v>805.370451344883</v>
       </c>
       <c r="AB13" t="n">
-        <v>974.5177704635761</v>
+        <v>1101.94338196677</v>
       </c>
       <c r="AC13" t="n">
-        <v>881.5111621948128</v>
+        <v>996.7754521791111</v>
       </c>
       <c r="AD13" t="n">
-        <v>712239.6935140598</v>
+        <v>805370.451344883</v>
       </c>
       <c r="AE13" t="n">
-        <v>974517.7704635761</v>
+        <v>1101943.38196677</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.408063047202009e-06</v>
+        <v>2.052795810434505e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.12962962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>881511.1621948128</v>
+        <v>996775.4521791111</v>
       </c>
     </row>
     <row r="14">
@@ -13497,28 +13497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>702.4751557825562</v>
+        <v>795.6059136133792</v>
       </c>
       <c r="AB14" t="n">
-        <v>961.157499158331</v>
+        <v>1088.583110661525</v>
       </c>
       <c r="AC14" t="n">
-        <v>869.4259764316819</v>
+        <v>984.6902664159802</v>
       </c>
       <c r="AD14" t="n">
-        <v>702475.1557825562</v>
+        <v>795605.9136133792</v>
       </c>
       <c r="AE14" t="n">
-        <v>961157.499158331</v>
+        <v>1088583.110661525</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.412585733649125e-06</v>
+        <v>2.059389372994787e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.06018518518519</v>
       </c>
       <c r="AH14" t="n">
-        <v>869425.9764316819</v>
+        <v>984690.2664159802</v>
       </c>
     </row>
     <row r="15">
@@ -13603,28 +13603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>683.0559047896654</v>
+        <v>784.5754149098061</v>
       </c>
       <c r="AB15" t="n">
-        <v>934.587223232968</v>
+        <v>1073.490695704038</v>
       </c>
       <c r="AC15" t="n">
-        <v>845.3915303490191</v>
+        <v>971.0382503596984</v>
       </c>
       <c r="AD15" t="n">
-        <v>683055.9047896654</v>
+        <v>784575.4149098061</v>
       </c>
       <c r="AE15" t="n">
-        <v>934587.223232968</v>
+        <v>1073490.695704038</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.41786220117076e-06</v>
+        <v>2.06708186264845e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.97337962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>845391.5303490191</v>
+        <v>971038.2503596984</v>
       </c>
     </row>
     <row r="16">
@@ -13709,28 +13709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>672.411096566678</v>
+        <v>773.9306066868187</v>
       </c>
       <c r="AB16" t="n">
-        <v>920.0225270064818</v>
+        <v>1058.925999477552</v>
       </c>
       <c r="AC16" t="n">
-        <v>832.216868288709</v>
+        <v>957.8635882993885</v>
       </c>
       <c r="AD16" t="n">
-        <v>672411.096566678</v>
+        <v>773930.6066868186</v>
       </c>
       <c r="AE16" t="n">
-        <v>920022.5270064818</v>
+        <v>1058925.999477552</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.424753913852079e-06</v>
+        <v>2.077129196073641e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.86921296296296</v>
       </c>
       <c r="AH16" t="n">
-        <v>832216.868288709</v>
+        <v>957863.5882993885</v>
       </c>
     </row>
     <row r="17">
@@ -13815,28 +13815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>670.231416034697</v>
+        <v>771.7509261548377</v>
       </c>
       <c r="AB17" t="n">
-        <v>917.040191941907</v>
+        <v>1055.943664412977</v>
       </c>
       <c r="AC17" t="n">
-        <v>829.5191630969637</v>
+        <v>955.1658831076431</v>
       </c>
       <c r="AD17" t="n">
-        <v>670231.416034697</v>
+        <v>771750.9261548377</v>
       </c>
       <c r="AE17" t="n">
-        <v>917040.1919419069</v>
+        <v>1055943.664412977</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.424000132777559e-06</v>
+        <v>2.076030268980261e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.88078703703704</v>
       </c>
       <c r="AH17" t="n">
-        <v>829519.1630969637</v>
+        <v>955165.8831076431</v>
       </c>
     </row>
     <row r="18">
@@ -13921,28 +13921,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>671.1563372104329</v>
+        <v>772.6758473305734</v>
       </c>
       <c r="AB18" t="n">
-        <v>918.305709899191</v>
+        <v>1057.209182370262</v>
       </c>
       <c r="AC18" t="n">
-        <v>830.6639017965703</v>
+        <v>956.3106218072497</v>
       </c>
       <c r="AD18" t="n">
-        <v>671156.3372104329</v>
+        <v>772675.8473305735</v>
       </c>
       <c r="AE18" t="n">
-        <v>918305.709899191</v>
+        <v>1057209.182370262</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.423192510197717e-06</v>
+        <v>2.074852847094497e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.89236111111111</v>
       </c>
       <c r="AH18" t="n">
-        <v>830663.9017965703</v>
+        <v>956310.6218072497</v>
       </c>
     </row>
   </sheetData>
@@ -14218,28 +14218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>507.0464518333834</v>
+        <v>596.1855442598884</v>
       </c>
       <c r="AB2" t="n">
-        <v>693.7633247091442</v>
+        <v>815.7273635063016</v>
       </c>
       <c r="AC2" t="n">
-        <v>627.5515267018444</v>
+        <v>737.8754888138046</v>
       </c>
       <c r="AD2" t="n">
-        <v>507046.4518333834</v>
+        <v>596185.5442598884</v>
       </c>
       <c r="AE2" t="n">
-        <v>693763.3247091442</v>
+        <v>815727.3635063015</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.530270706500411e-06</v>
+        <v>2.451853128849283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.36921296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>627551.5267018444</v>
+        <v>737875.4888138046</v>
       </c>
     </row>
     <row r="3">
@@ -14324,28 +14324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>431.8987007218338</v>
+        <v>521.0377036397878</v>
       </c>
       <c r="AB3" t="n">
-        <v>590.9428563535241</v>
+        <v>712.9067726811329</v>
       </c>
       <c r="AC3" t="n">
-        <v>534.5440995366511</v>
+        <v>644.8679508673847</v>
       </c>
       <c r="AD3" t="n">
-        <v>431898.7007218339</v>
+        <v>521037.7036397878</v>
       </c>
       <c r="AE3" t="n">
-        <v>590942.8563535241</v>
+        <v>712906.7726811329</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.653792915619165e-06</v>
+        <v>2.649764722937627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.54629629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>534544.099536651</v>
+        <v>644867.9508673847</v>
       </c>
     </row>
     <row r="4">
@@ -14430,28 +14430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>434.5213044367466</v>
+        <v>523.6603073547005</v>
       </c>
       <c r="AB4" t="n">
-        <v>594.531218457378</v>
+        <v>716.4951347849867</v>
       </c>
       <c r="AC4" t="n">
-        <v>537.7899933976109</v>
+        <v>648.1138447283445</v>
       </c>
       <c r="AD4" t="n">
-        <v>434521.3044367466</v>
+        <v>523660.3073547006</v>
       </c>
       <c r="AE4" t="n">
-        <v>594531.218457378</v>
+        <v>716495.1347849867</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.655468229879513e-06</v>
+        <v>2.652448969910135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.52314814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>537789.993397611</v>
+        <v>648113.8447283445</v>
       </c>
     </row>
   </sheetData>
@@ -14727,28 +14727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1210.3405728712</v>
+        <v>1350.219849990167</v>
       </c>
       <c r="AB2" t="n">
-        <v>1656.041368259918</v>
+        <v>1847.430366252266</v>
       </c>
       <c r="AC2" t="n">
-        <v>1497.991104341849</v>
+        <v>1671.114204981953</v>
       </c>
       <c r="AD2" t="n">
-        <v>1210340.5728712</v>
+        <v>1350219.849990167</v>
       </c>
       <c r="AE2" t="n">
-        <v>1656041.368259918</v>
+        <v>1847430.366252266</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.948101859462703e-07</v>
+        <v>1.477137137037425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.56365740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1497991.104341849</v>
+        <v>1671114.204981953</v>
       </c>
     </row>
     <row r="3">
@@ -14833,28 +14833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>853.5506555584277</v>
+        <v>968.6449533569051</v>
       </c>
       <c r="AB3" t="n">
-        <v>1167.865662932338</v>
+        <v>1325.342758782274</v>
       </c>
       <c r="AC3" t="n">
-        <v>1056.406203171827</v>
+        <v>1198.853906014338</v>
       </c>
       <c r="AD3" t="n">
-        <v>853550.6555584277</v>
+        <v>968644.9533569051</v>
       </c>
       <c r="AE3" t="n">
-        <v>1167865.662932338</v>
+        <v>1325342.758782274</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.248382667509212e-06</v>
+        <v>1.853652511265398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.94907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1056406.203171827</v>
+        <v>1198853.906014338</v>
       </c>
     </row>
     <row r="4">
@@ -14939,28 +14939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>768.7904749724285</v>
+        <v>867.5037774900827</v>
       </c>
       <c r="AB4" t="n">
-        <v>1051.893044499316</v>
+        <v>1186.956939927523</v>
       </c>
       <c r="AC4" t="n">
-        <v>951.5018486734613</v>
+        <v>1073.675435485368</v>
       </c>
       <c r="AD4" t="n">
-        <v>768790.4749724284</v>
+        <v>867503.7774900827</v>
       </c>
       <c r="AE4" t="n">
-        <v>1051893.044499316</v>
+        <v>1186956.939927523</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.341191315286554e-06</v>
+        <v>1.991458800552369e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.1550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>951501.8486734612</v>
+        <v>1073675.435485368</v>
       </c>
     </row>
     <row r="5">
@@ -15045,28 +15045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>721.7792725162312</v>
+        <v>820.4072341793139</v>
       </c>
       <c r="AB5" t="n">
-        <v>987.57024331087</v>
+        <v>1122.517371616879</v>
       </c>
       <c r="AC5" t="n">
-        <v>893.3179253528216</v>
+        <v>1015.385889132789</v>
       </c>
       <c r="AD5" t="n">
-        <v>721779.2725162313</v>
+        <v>820407.234179314</v>
       </c>
       <c r="AE5" t="n">
-        <v>987570.2433108699</v>
+        <v>1122517.371616879</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.389890666050298e-06</v>
+        <v>2.063769700238536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.30439814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>893317.9253528216</v>
+        <v>1015385.889132789</v>
       </c>
     </row>
     <row r="6">
@@ -15151,28 +15151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>681.374997817912</v>
+        <v>780.0882108270152</v>
       </c>
       <c r="AB6" t="n">
-        <v>932.2873321578331</v>
+        <v>1067.351105116491</v>
       </c>
       <c r="AC6" t="n">
-        <v>843.3111376501776</v>
+        <v>965.4846136808573</v>
       </c>
       <c r="AD6" t="n">
-        <v>681374.997817912</v>
+        <v>780088.2108270152</v>
       </c>
       <c r="AE6" t="n">
-        <v>932287.3321578332</v>
+        <v>1067351.105116491</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.429633814374733e-06</v>
+        <v>2.12278204366058e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.65625</v>
       </c>
       <c r="AH6" t="n">
-        <v>843311.1376501776</v>
+        <v>965484.6136808572</v>
       </c>
     </row>
     <row r="7">
@@ -15257,28 +15257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>670.163223098604</v>
+        <v>768.8764361077075</v>
       </c>
       <c r="AB7" t="n">
-        <v>916.9468873582847</v>
+        <v>1052.010660316943</v>
       </c>
       <c r="AC7" t="n">
-        <v>829.4347633718484</v>
+        <v>951.6082394025282</v>
       </c>
       <c r="AD7" t="n">
-        <v>670163.223098604</v>
+        <v>768876.4361077074</v>
       </c>
       <c r="AE7" t="n">
-        <v>916946.8873582847</v>
+        <v>1052010.660316943</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.439149779466499e-06</v>
+        <v>2.136911759691211e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.51157407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>829434.7633718484</v>
+        <v>951608.2394025282</v>
       </c>
     </row>
     <row r="8">
@@ -15363,28 +15363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>655.8108325280449</v>
+        <v>746.2909222237264</v>
       </c>
       <c r="AB8" t="n">
-        <v>897.3093133968614</v>
+        <v>1021.10816381833</v>
       </c>
       <c r="AC8" t="n">
-        <v>811.6713719077953</v>
+        <v>923.6550337978168</v>
       </c>
       <c r="AD8" t="n">
-        <v>655810.8325280449</v>
+        <v>746290.9222237264</v>
       </c>
       <c r="AE8" t="n">
-        <v>897309.3133968614</v>
+        <v>1021108.16381833</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.451856391677269e-06</v>
+        <v>2.155779086390935e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.31481481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>811671.3719077953</v>
+        <v>923655.0337978168</v>
       </c>
     </row>
     <row r="9">
@@ -15469,28 +15469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>639.4148567510985</v>
+        <v>729.8949464467796</v>
       </c>
       <c r="AB9" t="n">
-        <v>874.8756159994425</v>
+        <v>998.674466420911</v>
       </c>
       <c r="AC9" t="n">
-        <v>791.3787151040941</v>
+        <v>903.3623769941154</v>
       </c>
       <c r="AD9" t="n">
-        <v>639414.8567510984</v>
+        <v>729894.9464467796</v>
       </c>
       <c r="AE9" t="n">
-        <v>874875.6159994425</v>
+        <v>998674.466420911</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.465514600397215e-06</v>
+        <v>2.176059384693722e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.10648148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>791378.7151040941</v>
+        <v>903362.3769941154</v>
       </c>
     </row>
     <row r="10">
@@ -15575,28 +15575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>630.3031875896821</v>
+        <v>720.7832772853636</v>
       </c>
       <c r="AB10" t="n">
-        <v>862.4086282743199</v>
+        <v>986.2074786957882</v>
       </c>
       <c r="AC10" t="n">
-        <v>780.1015591899298</v>
+        <v>892.0852210799512</v>
       </c>
       <c r="AD10" t="n">
-        <v>630303.1875896822</v>
+        <v>720783.2772853636</v>
       </c>
       <c r="AE10" t="n">
-        <v>862408.6282743199</v>
+        <v>986207.4786957882</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.468873176311956e-06</v>
+        <v>2.181046343292768e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.05439814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>780101.5591899299</v>
+        <v>892085.2210799513</v>
       </c>
     </row>
     <row r="11">
@@ -15681,28 +15681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>606.1503569256363</v>
+        <v>704.7782290801679</v>
       </c>
       <c r="AB11" t="n">
-        <v>829.3616598120858</v>
+        <v>964.3086656485463</v>
       </c>
       <c r="AC11" t="n">
-        <v>750.2085470160199</v>
+        <v>872.2764000147608</v>
       </c>
       <c r="AD11" t="n">
-        <v>606150.3569256363</v>
+        <v>704778.2290801678</v>
       </c>
       <c r="AE11" t="n">
-        <v>829361.6598120858</v>
+        <v>964308.6656485463</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.479508666708636e-06</v>
+        <v>2.196838378856413e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.89814814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>750208.5470160199</v>
+        <v>872276.4000147608</v>
       </c>
     </row>
     <row r="12">
@@ -15787,28 +15787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>604.1049638405481</v>
+        <v>702.7328359950798</v>
       </c>
       <c r="AB12" t="n">
-        <v>826.563062756694</v>
+        <v>961.5100685931544</v>
       </c>
       <c r="AC12" t="n">
-        <v>747.6770441357389</v>
+        <v>869.7448971344799</v>
       </c>
       <c r="AD12" t="n">
-        <v>604104.9638405481</v>
+        <v>702732.8359950797</v>
       </c>
       <c r="AE12" t="n">
-        <v>826563.0627566939</v>
+        <v>961510.0685931544</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.480796120809286e-06</v>
+        <v>2.198750046319381e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH12" t="n">
-        <v>747677.044135739</v>
+        <v>869744.8971344798</v>
       </c>
     </row>
     <row r="13">
@@ -15893,28 +15893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>606.5437729427287</v>
+        <v>705.1716450972601</v>
       </c>
       <c r="AB13" t="n">
-        <v>829.8999489629613</v>
+        <v>964.8469547994217</v>
       </c>
       <c r="AC13" t="n">
-        <v>750.6954626058294</v>
+        <v>872.7633156045703</v>
       </c>
       <c r="AD13" t="n">
-        <v>606543.7729427286</v>
+        <v>705171.6450972601</v>
       </c>
       <c r="AE13" t="n">
-        <v>829899.9489629613</v>
+        <v>964846.9547994217</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.480740144544041e-06</v>
+        <v>2.198666930342731e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.875</v>
       </c>
       <c r="AH13" t="n">
-        <v>750695.4626058295</v>
+        <v>872763.3156045703</v>
       </c>
     </row>
   </sheetData>
@@ -16190,28 +16190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1399.589698359258</v>
+        <v>1549.957467694327</v>
       </c>
       <c r="AB2" t="n">
-        <v>1914.980370834847</v>
+        <v>2120.720186596885</v>
       </c>
       <c r="AC2" t="n">
-        <v>1732.217331934199</v>
+        <v>1918.321628437553</v>
       </c>
       <c r="AD2" t="n">
-        <v>1399589.698359258</v>
+        <v>1549957.467694327</v>
       </c>
       <c r="AE2" t="n">
-        <v>1914980.370834847</v>
+        <v>2120720.186596884</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.145501770639946e-07</v>
+        <v>1.344793429661784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.70486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1732217.331934199</v>
+        <v>1918321.628437553</v>
       </c>
     </row>
     <row r="3">
@@ -16296,28 +16296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>947.2899541076432</v>
+        <v>1064.223698956125</v>
       </c>
       <c r="AB3" t="n">
-        <v>1296.123906693359</v>
+        <v>1456.117815147788</v>
       </c>
       <c r="AC3" t="n">
-        <v>1172.423660159872</v>
+        <v>1317.147974544271</v>
       </c>
       <c r="AD3" t="n">
-        <v>947289.9541076432</v>
+        <v>1064223.698956125</v>
       </c>
       <c r="AE3" t="n">
-        <v>1296123.906693358</v>
+        <v>1456117.815147788</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183842013308925e-06</v>
+        <v>1.740771584962496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.81134259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1172423.660159872</v>
+        <v>1317147.974544271</v>
       </c>
     </row>
     <row r="4">
@@ -16402,28 +16402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>834.9697035529977</v>
+        <v>943.5449422798331</v>
       </c>
       <c r="AB4" t="n">
-        <v>1142.44238466476</v>
+        <v>1290.999816292287</v>
       </c>
       <c r="AC4" t="n">
-        <v>1033.409286900312</v>
+        <v>1167.788605754973</v>
       </c>
       <c r="AD4" t="n">
-        <v>834969.7035529977</v>
+        <v>943544.9422798331</v>
       </c>
       <c r="AE4" t="n">
-        <v>1142442.38466476</v>
+        <v>1290999.816292287</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.286677490490034e-06</v>
+        <v>1.891985238972441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.67013888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1033409.286900312</v>
+        <v>1167788.605754973</v>
       </c>
     </row>
     <row r="5">
@@ -16508,28 +16508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>784.2509702391802</v>
+        <v>884.5530436989407</v>
       </c>
       <c r="AB5" t="n">
-        <v>1073.046776192199</v>
+        <v>1210.284498115023</v>
       </c>
       <c r="AC5" t="n">
-        <v>970.6366979030244</v>
+        <v>1094.776644259886</v>
       </c>
       <c r="AD5" t="n">
-        <v>784250.9702391803</v>
+        <v>884553.0436989407</v>
       </c>
       <c r="AE5" t="n">
-        <v>1073046.776192199</v>
+        <v>1210284.498115023</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.337574195996204e-06</v>
+        <v>1.966825916797097e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.72685185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>970636.6979030244</v>
+        <v>1094776.644259886</v>
       </c>
     </row>
     <row r="6">
@@ -16614,28 +16614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>755.6205570807558</v>
+        <v>855.7520383399241</v>
       </c>
       <c r="AB6" t="n">
-        <v>1033.873381824159</v>
+        <v>1170.877691972135</v>
       </c>
       <c r="AC6" t="n">
-        <v>935.2019573132652</v>
+        <v>1059.130768387475</v>
       </c>
       <c r="AD6" t="n">
-        <v>755620.5570807558</v>
+        <v>855752.0383399241</v>
       </c>
       <c r="AE6" t="n">
-        <v>1033873.381824159</v>
+        <v>1170877.691972135</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370317011930669e-06</v>
+        <v>2.014972344233863e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.15972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>935201.9573132652</v>
+        <v>1059130.768387476</v>
       </c>
     </row>
     <row r="7">
@@ -16720,28 +16720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>729.3560515389737</v>
+        <v>829.5727841441627</v>
       </c>
       <c r="AB7" t="n">
-        <v>997.9371266336857</v>
+        <v>1135.058081434311</v>
       </c>
       <c r="AC7" t="n">
-        <v>902.6954078813199</v>
+        <v>1026.729731206242</v>
       </c>
       <c r="AD7" t="n">
-        <v>729356.0515389737</v>
+        <v>829572.7841441627</v>
       </c>
       <c r="AE7" t="n">
-        <v>997937.1266336857</v>
+        <v>1135058.081434311</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.390116269137272e-06</v>
+        <v>2.044086013085912e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.82986111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>902695.4078813199</v>
+        <v>1026729.731206242</v>
       </c>
     </row>
     <row r="8">
@@ -16826,28 +16826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>713.5822979195356</v>
+        <v>813.7990305247243</v>
       </c>
       <c r="AB8" t="n">
-        <v>976.3547810426741</v>
+        <v>1113.475735843299</v>
       </c>
       <c r="AC8" t="n">
-        <v>883.172851062502</v>
+        <v>1007.207174387425</v>
       </c>
       <c r="AD8" t="n">
-        <v>713582.2979195355</v>
+        <v>813799.0305247244</v>
       </c>
       <c r="AE8" t="n">
-        <v>976354.7810426741</v>
+        <v>1113475.735843299</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.40580210725663e-06</v>
+        <v>2.067151135777562e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.57523148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>883172.851062502</v>
+        <v>1007207.174387425</v>
       </c>
     </row>
     <row r="9">
@@ -16932,28 +16932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>698.8842973167732</v>
+        <v>790.7426133088662</v>
       </c>
       <c r="AB9" t="n">
-        <v>956.2443281879519</v>
+        <v>1081.928928631224</v>
       </c>
       <c r="AC9" t="n">
-        <v>864.9817116030368</v>
+        <v>978.6711501794474</v>
       </c>
       <c r="AD9" t="n">
-        <v>698884.2973167732</v>
+        <v>790742.6133088663</v>
       </c>
       <c r="AE9" t="n">
-        <v>956244.3281879518</v>
+        <v>1081928.928631224</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.419239276274962e-06</v>
+        <v>2.086909719901529e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.36111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>864981.7116030368</v>
+        <v>978671.1501794474</v>
       </c>
     </row>
     <row r="10">
@@ -17038,28 +17038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>687.3417494632171</v>
+        <v>779.2000654553103</v>
       </c>
       <c r="AB10" t="n">
-        <v>940.4513049934441</v>
+        <v>1066.135905436716</v>
       </c>
       <c r="AC10" t="n">
-        <v>850.6959523765656</v>
+        <v>964.3853909529764</v>
       </c>
       <c r="AD10" t="n">
-        <v>687341.7494632171</v>
+        <v>779200.0654553103</v>
       </c>
       <c r="AE10" t="n">
-        <v>940451.3049934441</v>
+        <v>1066135.905436716</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.42801457032775e-06</v>
+        <v>2.099813285043711e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.22800925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>850695.9523765657</v>
+        <v>964385.3909529764</v>
       </c>
     </row>
     <row r="11">
@@ -17144,28 +17144,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>675.5087511041434</v>
+        <v>767.3670670962364</v>
       </c>
       <c r="AB11" t="n">
-        <v>924.2608746035152</v>
+        <v>1049.945475046787</v>
       </c>
       <c r="AC11" t="n">
-        <v>836.0507139396398</v>
+        <v>949.7401525160503</v>
       </c>
       <c r="AD11" t="n">
-        <v>675508.7511041433</v>
+        <v>767367.0670962364</v>
       </c>
       <c r="AE11" t="n">
-        <v>924260.8746035151</v>
+        <v>1049945.475046787</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.435802643799599e-06</v>
+        <v>2.111265199107398e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.10648148148148</v>
       </c>
       <c r="AH11" t="n">
-        <v>836050.7139396397</v>
+        <v>949740.1525160504</v>
       </c>
     </row>
     <row r="12">
@@ -17250,28 +17250,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>654.2496606689568</v>
+        <v>754.3810524195738</v>
       </c>
       <c r="AB12" t="n">
-        <v>895.1732491852156</v>
+        <v>1032.177436863643</v>
       </c>
       <c r="AC12" t="n">
-        <v>809.7391706665239</v>
+        <v>933.6678709595078</v>
       </c>
       <c r="AD12" t="n">
-        <v>654249.6606689568</v>
+        <v>754381.0524195739</v>
       </c>
       <c r="AE12" t="n">
-        <v>895173.2491852156</v>
+        <v>1032177.436863643</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.443481026095788e-06</v>
+        <v>2.122555818606806e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.99074074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>809739.170666524</v>
+        <v>933667.8709595078</v>
       </c>
     </row>
     <row r="13">
@@ -17356,28 +17356,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>645.9149993505939</v>
+        <v>746.0463911012109</v>
       </c>
       <c r="AB13" t="n">
-        <v>883.769397870125</v>
+        <v>1020.773585548553</v>
       </c>
       <c r="AC13" t="n">
-        <v>799.4236869155396</v>
+        <v>923.3523872085235</v>
       </c>
       <c r="AD13" t="n">
-        <v>645914.9993505939</v>
+        <v>746046.391101211</v>
       </c>
       <c r="AE13" t="n">
-        <v>883769.397870125</v>
+        <v>1020773.585548553</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.447923518710013e-06</v>
+        <v>2.129088248460037e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.9212962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>799423.6869155397</v>
+        <v>923352.3872085235</v>
       </c>
     </row>
     <row r="14">
@@ -17462,28 +17462,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>634.9396910592174</v>
+        <v>735.0710828098345</v>
       </c>
       <c r="AB14" t="n">
-        <v>868.7524968694347</v>
+        <v>1005.756684547863</v>
       </c>
       <c r="AC14" t="n">
-        <v>785.8399778700024</v>
+        <v>909.7686781629862</v>
       </c>
       <c r="AD14" t="n">
-        <v>634939.6910592173</v>
+        <v>735071.0828098345</v>
       </c>
       <c r="AE14" t="n">
-        <v>868752.4968694347</v>
+        <v>1005756.684547863</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.452804776026876e-06</v>
+        <v>2.136265856570375e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.84606481481481</v>
       </c>
       <c r="AH14" t="n">
-        <v>785839.9778700024</v>
+        <v>909768.6781629863</v>
       </c>
     </row>
     <row r="15">
@@ -17568,28 +17568,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>636.8079119137013</v>
+        <v>736.9393036643186</v>
       </c>
       <c r="AB15" t="n">
-        <v>871.3086790626269</v>
+        <v>1008.312866741055</v>
       </c>
       <c r="AC15" t="n">
-        <v>788.1522016223006</v>
+        <v>912.0809019152844</v>
       </c>
       <c r="AD15" t="n">
-        <v>636807.9119137013</v>
+        <v>736939.3036643185</v>
       </c>
       <c r="AE15" t="n">
-        <v>871308.6790626269</v>
+        <v>1008312.866741055</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.452695084851216e-06</v>
+        <v>2.136104562006098e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>21.84606481481481</v>
       </c>
       <c r="AH15" t="n">
-        <v>788152.2016223005</v>
+        <v>912080.9019152843</v>
       </c>
     </row>
   </sheetData>
@@ -17865,28 +17865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1857.649313464087</v>
+        <v>2037.700531129857</v>
       </c>
       <c r="AB2" t="n">
-        <v>2541.717744385272</v>
+        <v>2788.071763694691</v>
       </c>
       <c r="AC2" t="n">
-        <v>2299.1397701844</v>
+        <v>2521.982107650967</v>
       </c>
       <c r="AD2" t="n">
-        <v>1857649.313464087</v>
+        <v>2037700.531129857</v>
       </c>
       <c r="AE2" t="n">
-        <v>2541717.744385272</v>
+        <v>2788071.763694691</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.731098791807e-07</v>
+        <v>1.118514117830079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.6238425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>2299139.7701844</v>
+        <v>2521982.107650966</v>
       </c>
     </row>
     <row r="3">
@@ -17971,28 +17971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1145.939751668685</v>
+        <v>1274.584338939051</v>
       </c>
       <c r="AB3" t="n">
-        <v>1567.925323526925</v>
+        <v>1743.942523228881</v>
       </c>
       <c r="AC3" t="n">
-        <v>1418.284731246528</v>
+        <v>1577.50309645062</v>
       </c>
       <c r="AD3" t="n">
-        <v>1145939.751668685</v>
+        <v>1274584.338939051</v>
       </c>
       <c r="AE3" t="n">
-        <v>1567925.323526925</v>
+        <v>1743942.523228881</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.068664005137003e-06</v>
+        <v>1.546113701495193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.66898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>1418284.731246528</v>
+        <v>1577503.09645062</v>
       </c>
     </row>
     <row r="4">
@@ -18077,28 +18077,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>984.8419354192307</v>
+        <v>1104.819186626696</v>
       </c>
       <c r="AB4" t="n">
-        <v>1347.504184200366</v>
+        <v>1511.66235232518</v>
       </c>
       <c r="AC4" t="n">
-        <v>1218.900276094283</v>
+        <v>1367.391419050701</v>
       </c>
       <c r="AD4" t="n">
-        <v>984841.9354192307</v>
+        <v>1104819.186626696</v>
       </c>
       <c r="AE4" t="n">
-        <v>1347504.184200366</v>
+        <v>1511662.35232518</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183275268381745e-06</v>
+        <v>1.711930126111882e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.89120370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>1218900.276094283</v>
+        <v>1367391.4190507</v>
       </c>
     </row>
     <row r="5">
@@ -18183,28 +18183,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>915.9045632398021</v>
+        <v>1027.38516009351</v>
       </c>
       <c r="AB5" t="n">
-        <v>1253.181030282255</v>
+        <v>1405.713701074324</v>
       </c>
       <c r="AC5" t="n">
-        <v>1133.579191602739</v>
+        <v>1271.55435837536</v>
       </c>
       <c r="AD5" t="n">
-        <v>915904.5632398021</v>
+        <v>1027385.16009351</v>
       </c>
       <c r="AE5" t="n">
-        <v>1253181.030282255</v>
+        <v>1405713.701074324</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.244048353926763e-06</v>
+        <v>1.799854955423641e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.62384259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>1133579.191602739</v>
+        <v>1271554.35837536</v>
       </c>
     </row>
     <row r="6">
@@ -18289,28 +18289,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>871.1264571204771</v>
+        <v>982.5217131196132</v>
       </c>
       <c r="AB6" t="n">
-        <v>1191.913650019174</v>
+        <v>1344.329553689045</v>
       </c>
       <c r="AC6" t="n">
-        <v>1078.159084122658</v>
+        <v>1216.028627863341</v>
       </c>
       <c r="AD6" t="n">
-        <v>871126.4571204771</v>
+        <v>982521.7131196132</v>
       </c>
       <c r="AE6" t="n">
-        <v>1191913.650019174</v>
+        <v>1344329.553689045</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.282216816189793e-06</v>
+        <v>1.85507603724749e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.89467592592592</v>
       </c>
       <c r="AH6" t="n">
-        <v>1078159.084122658</v>
+        <v>1216028.627863341</v>
       </c>
     </row>
     <row r="7">
@@ -18395,28 +18395,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>846.2155052382975</v>
+        <v>949.0288555376555</v>
       </c>
       <c r="AB7" t="n">
-        <v>1157.829386660342</v>
+        <v>1298.503148344818</v>
       </c>
       <c r="AC7" t="n">
-        <v>1047.327775021229</v>
+        <v>1174.575830327403</v>
       </c>
       <c r="AD7" t="n">
-        <v>846215.5052382975</v>
+        <v>949028.8555376555</v>
       </c>
       <c r="AE7" t="n">
-        <v>1157829.386660342</v>
+        <v>1298503.148344818</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.308262424280515e-06</v>
+        <v>1.892758106952529e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.41435185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>1047327.775021229</v>
+        <v>1174575.830327403</v>
       </c>
     </row>
     <row r="8">
@@ -18501,28 +18501,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>832.9716550590905</v>
+        <v>935.7850053584485</v>
       </c>
       <c r="AB8" t="n">
-        <v>1139.708566567718</v>
+        <v>1280.382328252193</v>
       </c>
       <c r="AC8" t="n">
-        <v>1030.936380565514</v>
+        <v>1158.184435871688</v>
       </c>
       <c r="AD8" t="n">
-        <v>832971.6550590905</v>
+        <v>935785.0053584485</v>
       </c>
       <c r="AE8" t="n">
-        <v>1139708.566567718</v>
+        <v>1280382.328252193</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.321973425287622e-06</v>
+        <v>1.912594806248475e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.17129629629629</v>
       </c>
       <c r="AH8" t="n">
-        <v>1030936.380565514</v>
+        <v>1158184.435871687</v>
       </c>
     </row>
     <row r="9">
@@ -18607,28 +18607,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>807.1830394844603</v>
+        <v>910.081641129839</v>
       </c>
       <c r="AB9" t="n">
-        <v>1104.423445025086</v>
+        <v>1245.21385136221</v>
       </c>
       <c r="AC9" t="n">
-        <v>999.0188214999309</v>
+        <v>1126.372389056817</v>
       </c>
       <c r="AD9" t="n">
-        <v>807183.0394844604</v>
+        <v>910081.641129839</v>
       </c>
       <c r="AE9" t="n">
-        <v>1104423.445025085</v>
+        <v>1245213.85136221</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.339019534647811e-06</v>
+        <v>1.937256648616407e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.87615740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>999018.8214999309</v>
+        <v>1126372.389056817</v>
       </c>
     </row>
     <row r="10">
@@ -18713,28 +18713,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>794.245275099139</v>
+        <v>897.1438767445173</v>
       </c>
       <c r="AB10" t="n">
-        <v>1086.721425019207</v>
+        <v>1227.511831356332</v>
       </c>
       <c r="AC10" t="n">
-        <v>983.0062574384726</v>
+        <v>1110.359824995359</v>
       </c>
       <c r="AD10" t="n">
-        <v>794245.275099139</v>
+        <v>897143.8767445174</v>
       </c>
       <c r="AE10" t="n">
-        <v>1086721.425019207</v>
+        <v>1227511.831356332</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.350613006541851e-06</v>
+        <v>1.954029765009504e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.68518518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>983006.2574384726</v>
+        <v>1110359.824995359</v>
       </c>
     </row>
     <row r="11">
@@ -18819,28 +18819,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>782.627281653517</v>
+        <v>885.5258832988956</v>
       </c>
       <c r="AB11" t="n">
-        <v>1070.82517383721</v>
+        <v>1211.615580174335</v>
       </c>
       <c r="AC11" t="n">
-        <v>968.6271221587569</v>
+        <v>1095.980689715643</v>
       </c>
       <c r="AD11" t="n">
-        <v>782627.281653517</v>
+        <v>885525.8832988956</v>
       </c>
       <c r="AE11" t="n">
-        <v>1070825.17383721</v>
+        <v>1211615.580174335</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.359877196411519e-06</v>
+        <v>1.967432940209467e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.52893518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>968627.1221587569</v>
+        <v>1095980.689715643</v>
       </c>
     </row>
     <row r="12">
@@ -18925,28 +18925,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>773.4715081866284</v>
+        <v>867.7882041322288</v>
       </c>
       <c r="AB12" t="n">
-        <v>1058.297840655596</v>
+        <v>1187.346105007325</v>
       </c>
       <c r="AC12" t="n">
-        <v>957.2953800737727</v>
+        <v>1074.02745919615</v>
       </c>
       <c r="AD12" t="n">
-        <v>773471.5081866283</v>
+        <v>867788.2041322287</v>
       </c>
       <c r="AE12" t="n">
-        <v>1058297.840655596</v>
+        <v>1187346.105007325</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.367076795395946e-06</v>
+        <v>1.977849122079154e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.40740740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>957295.3800737726</v>
+        <v>1074027.45919615</v>
       </c>
     </row>
     <row r="13">
@@ -19031,28 +19031,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>766.4091616904437</v>
+        <v>860.7258576360441</v>
       </c>
       <c r="AB13" t="n">
-        <v>1048.634826610778</v>
+        <v>1177.683090962508</v>
       </c>
       <c r="AC13" t="n">
-        <v>948.5545905272671</v>
+        <v>1065.286669649644</v>
       </c>
       <c r="AD13" t="n">
-        <v>766409.1616904438</v>
+        <v>860725.8576360442</v>
       </c>
       <c r="AE13" t="n">
-        <v>1048634.826610778</v>
+        <v>1177683.090962508</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.37099422425512e-06</v>
+        <v>1.983516750449424e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH13" t="n">
-        <v>948554.5905272671</v>
+        <v>1065286.669649644</v>
       </c>
     </row>
     <row r="14">
@@ -19137,28 +19137,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>756.9851825176938</v>
+        <v>851.3018784632942</v>
       </c>
       <c r="AB14" t="n">
-        <v>1035.740522550003</v>
+        <v>1164.788786901732</v>
       </c>
       <c r="AC14" t="n">
-        <v>936.8909007487831</v>
+        <v>1053.62297987116</v>
       </c>
       <c r="AD14" t="n">
-        <v>756985.1825176938</v>
+        <v>851301.8784632942</v>
       </c>
       <c r="AE14" t="n">
-        <v>1035740.522550003</v>
+        <v>1164788.786901732</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.37798207032824e-06</v>
+        <v>1.993626574028825e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.2337962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>936890.9007487831</v>
+        <v>1053622.97987116</v>
       </c>
     </row>
     <row r="15">
@@ -19243,28 +19243,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>747.6706499231917</v>
+        <v>841.9873458687923</v>
       </c>
       <c r="AB15" t="n">
-        <v>1022.995968126029</v>
+        <v>1152.044232477758</v>
       </c>
       <c r="AC15" t="n">
-        <v>925.3626687119388</v>
+        <v>1042.094747834316</v>
       </c>
       <c r="AD15" t="n">
-        <v>747670.6499231918</v>
+        <v>841987.3458687923</v>
       </c>
       <c r="AE15" t="n">
-        <v>1022995.968126029</v>
+        <v>1152044.232477759</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.383011201971774e-06</v>
+        <v>2.00090258342309e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.15277777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>925362.6687119388</v>
+        <v>1042094.747834316</v>
       </c>
     </row>
     <row r="16">
@@ -19349,28 +19349,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>738.759192968687</v>
+        <v>833.0758889142875</v>
       </c>
       <c r="AB16" t="n">
-        <v>1010.802919575141</v>
+        <v>1139.851183926871</v>
       </c>
       <c r="AC16" t="n">
-        <v>914.3333076016971</v>
+        <v>1031.065386724074</v>
       </c>
       <c r="AD16" t="n">
-        <v>738759.192968687</v>
+        <v>833075.8889142874</v>
       </c>
       <c r="AE16" t="n">
-        <v>1010802.919575142</v>
+        <v>1139851.183926871</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.388569715893574e-06</v>
+        <v>2.008944488543068e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>22.06018518518519</v>
       </c>
       <c r="AH16" t="n">
-        <v>914333.3076016972</v>
+        <v>1031065.386724074</v>
       </c>
     </row>
     <row r="17">
@@ -19455,28 +19455,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>731.5892163930499</v>
+        <v>825.9059123386504</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000.992641307313</v>
+        <v>1130.040905659043</v>
       </c>
       <c r="AC17" t="n">
-        <v>905.459308522938</v>
+        <v>1022.191387645315</v>
       </c>
       <c r="AD17" t="n">
-        <v>731589.2163930499</v>
+        <v>825905.9123386504</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000992.641307313</v>
+        <v>1130040.905659043</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.390528430323161e-06</v>
+        <v>2.011778302728203e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH17" t="n">
-        <v>905459.3085229381</v>
+        <v>1022191.387645315</v>
       </c>
     </row>
     <row r="18">
@@ -19561,28 +19561,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>725.8609547212075</v>
+        <v>820.1776506668081</v>
       </c>
       <c r="AB18" t="n">
-        <v>993.1549809748287</v>
+        <v>1122.203245326558</v>
       </c>
       <c r="AC18" t="n">
-        <v>898.3696634923607</v>
+        <v>1015.101742614738</v>
       </c>
       <c r="AD18" t="n">
-        <v>725860.9547212075</v>
+        <v>820177.650666808</v>
       </c>
       <c r="AE18" t="n">
-        <v>993154.9809748287</v>
+        <v>1122203.245326558</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.391798947791001e-06</v>
+        <v>2.013616452469913e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>22.01388888888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>898369.6634923607</v>
+        <v>1015101.742614738</v>
       </c>
     </row>
     <row r="19">
@@ -19667,28 +19667,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>706.9508890835847</v>
+        <v>809.7641498743915</v>
       </c>
       <c r="AB19" t="n">
-        <v>967.2813949162157</v>
+        <v>1107.955034131143</v>
       </c>
       <c r="AC19" t="n">
-        <v>874.9654161733754</v>
+        <v>1002.213360698323</v>
       </c>
       <c r="AD19" t="n">
-        <v>706950.8890835847</v>
+        <v>809764.1498743915</v>
       </c>
       <c r="AE19" t="n">
-        <v>967281.3949162157</v>
+        <v>1107955.034131143</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.397569214624108e-06</v>
+        <v>2.021964715880176e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.9212962962963</v>
       </c>
       <c r="AH19" t="n">
-        <v>874965.4161733754</v>
+        <v>1002213.360698323</v>
       </c>
     </row>
     <row r="20">
@@ -19773,28 +19773,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>702.194635945149</v>
+        <v>805.0078967359559</v>
       </c>
       <c r="AB20" t="n">
-        <v>960.7736795411287</v>
+        <v>1101.447318756056</v>
       </c>
       <c r="AC20" t="n">
-        <v>869.0787880200511</v>
+        <v>996.3267325449983</v>
       </c>
       <c r="AD20" t="n">
-        <v>702194.635945149</v>
+        <v>805007.896735956</v>
       </c>
       <c r="AE20" t="n">
-        <v>960773.6795411287</v>
+        <v>1101447.318756056</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.397039832345841e-06</v>
+        <v>2.021198820154463e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>869078.7880200511</v>
+        <v>996326.7325449983</v>
       </c>
     </row>
     <row r="21">
@@ -19879,28 +19879,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>702.8459712533976</v>
+        <v>805.6592320442045</v>
       </c>
       <c r="AB21" t="n">
-        <v>961.6648652447602</v>
+        <v>1102.338504459688</v>
       </c>
       <c r="AC21" t="n">
-        <v>869.8849202109149</v>
+        <v>997.1328647358622</v>
       </c>
       <c r="AD21" t="n">
-        <v>702845.9712533975</v>
+        <v>805659.2320442045</v>
       </c>
       <c r="AE21" t="n">
-        <v>961664.8652447602</v>
+        <v>1102338.504459688</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.399316176142388e-06</v>
+        <v>2.024492171775026e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>21.89236111111111</v>
       </c>
       <c r="AH21" t="n">
-        <v>869884.9202109148</v>
+        <v>997132.8647358622</v>
       </c>
     </row>
   </sheetData>
@@ -20176,28 +20176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1038.035630397182</v>
+        <v>1167.483237273793</v>
       </c>
       <c r="AB2" t="n">
-        <v>1420.286144409396</v>
+        <v>1597.402070963341</v>
       </c>
       <c r="AC2" t="n">
-        <v>1284.736028171086</v>
+        <v>1444.948259278486</v>
       </c>
       <c r="AD2" t="n">
-        <v>1038035.630397182</v>
+        <v>1167483.237273793</v>
       </c>
       <c r="AE2" t="n">
-        <v>1420286.144409396</v>
+        <v>1597402.070963341</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.08374035734708e-06</v>
+        <v>1.627436220236699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.58449074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1284736.028171086</v>
+        <v>1444948.259278486</v>
       </c>
     </row>
     <row r="3">
@@ -20282,28 +20282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>769.5188415492535</v>
+        <v>874.5937693802475</v>
       </c>
       <c r="AB3" t="n">
-        <v>1052.889627782994</v>
+        <v>1196.657779620013</v>
       </c>
       <c r="AC3" t="n">
-        <v>952.4033194472581</v>
+        <v>1082.450440652821</v>
       </c>
       <c r="AD3" t="n">
-        <v>769518.8415492534</v>
+        <v>874593.7693802476</v>
       </c>
       <c r="AE3" t="n">
-        <v>1052889.627782994</v>
+        <v>1196657.779620013</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.31969714391739e-06</v>
+        <v>1.981768896206428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.11574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>952403.3194472581</v>
+        <v>1082450.440652821</v>
       </c>
     </row>
     <row r="4">
@@ -20388,28 +20388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>691.4976320622815</v>
+        <v>788.6473428606687</v>
       </c>
       <c r="AB4" t="n">
-        <v>946.1375669100844</v>
+        <v>1079.062087167191</v>
       </c>
       <c r="AC4" t="n">
-        <v>855.8395254366004</v>
+        <v>976.077916041105</v>
       </c>
       <c r="AD4" t="n">
-        <v>691497.6320622815</v>
+        <v>788647.3428606687</v>
       </c>
       <c r="AE4" t="n">
-        <v>946137.5669100843</v>
+        <v>1079062.087167191</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.403713795834536e-06</v>
+        <v>2.107935409713126e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>855839.5254366004</v>
+        <v>976077.9160411051</v>
       </c>
     </row>
     <row r="5">
@@ -20494,28 +20494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>649.4055984643663</v>
+        <v>746.4699684081818</v>
       </c>
       <c r="AB5" t="n">
-        <v>888.5453895719529</v>
+        <v>1021.353142706862</v>
       </c>
       <c r="AC5" t="n">
-        <v>803.7438646724916</v>
+        <v>923.8766322450575</v>
       </c>
       <c r="AD5" t="n">
-        <v>649405.5984643663</v>
+        <v>746469.9684081818</v>
       </c>
       <c r="AE5" t="n">
-        <v>888545.3895719529</v>
+        <v>1021353.142706862</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.447812515654716e-06</v>
+        <v>2.174157778765721e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.89351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>803743.8646724916</v>
+        <v>923876.6322450575</v>
       </c>
     </row>
     <row r="6">
@@ -20600,28 +20600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>627.9867013627714</v>
+        <v>724.8804791059949</v>
       </c>
       <c r="AB6" t="n">
-        <v>859.239109622501</v>
+        <v>991.8134509825633</v>
       </c>
       <c r="AC6" t="n">
-        <v>777.2345349497932</v>
+        <v>897.1561672397079</v>
       </c>
       <c r="AD6" t="n">
-        <v>627986.7013627714</v>
+        <v>724880.4791059949</v>
       </c>
       <c r="AE6" t="n">
-        <v>859239.1096225011</v>
+        <v>991813.4509825633</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.473240868382195e-06</v>
+        <v>2.212343144816828e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.49421296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>777234.5349497932</v>
+        <v>897156.1672397079</v>
       </c>
     </row>
     <row r="7">
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>609.2007784437968</v>
+        <v>698.1694286629646</v>
       </c>
       <c r="AB7" t="n">
-        <v>833.5353811083327</v>
+        <v>955.2662133580316</v>
       </c>
       <c r="AC7" t="n">
-        <v>753.9839342096076</v>
+        <v>864.0969466796913</v>
       </c>
       <c r="AD7" t="n">
-        <v>609200.7784437968</v>
+        <v>698169.4286629646</v>
       </c>
       <c r="AE7" t="n">
-        <v>833535.3811083327</v>
+        <v>955266.2133580316</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.492197590798402e-06</v>
+        <v>2.240810163201775e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.21064814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>753983.9342096075</v>
+        <v>864096.9466796913</v>
       </c>
     </row>
     <row r="8">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>591.756882240721</v>
+        <v>680.7255324598887</v>
       </c>
       <c r="AB8" t="n">
-        <v>809.6678727528974</v>
+        <v>931.3987050025963</v>
       </c>
       <c r="AC8" t="n">
-        <v>732.3943073533567</v>
+        <v>842.5073198234404</v>
       </c>
       <c r="AD8" t="n">
-        <v>591756.882240721</v>
+        <v>680725.5324598886</v>
       </c>
       <c r="AE8" t="n">
-        <v>809667.8727528974</v>
+        <v>931398.7050025964</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.50445359864453e-06</v>
+        <v>2.259214821613795e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH8" t="n">
-        <v>732394.3073533567</v>
+        <v>842507.3198234404</v>
       </c>
     </row>
     <row r="9">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>572.3163051301074</v>
+        <v>669.2953342193513</v>
       </c>
       <c r="AB9" t="n">
-        <v>783.0684174924241</v>
+        <v>915.7594035051359</v>
       </c>
       <c r="AC9" t="n">
-        <v>708.3334667703732</v>
+        <v>828.3606113110001</v>
       </c>
       <c r="AD9" t="n">
-        <v>572316.3051301073</v>
+        <v>669295.3342193513</v>
       </c>
       <c r="AE9" t="n">
-        <v>783068.4174924241</v>
+        <v>915759.4035051359</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.511956108120431e-06</v>
+        <v>2.270481224660405e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.9212962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>708333.4667703732</v>
+        <v>828360.6113110001</v>
       </c>
     </row>
     <row r="10">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>569.2304086295011</v>
+        <v>666.2094377187451</v>
       </c>
       <c r="AB10" t="n">
-        <v>778.8461577601495</v>
+        <v>911.5371437728613</v>
       </c>
       <c r="AC10" t="n">
-        <v>704.514173580968</v>
+        <v>824.5413181215948</v>
       </c>
       <c r="AD10" t="n">
-        <v>569230.4086295011</v>
+        <v>666209.4377187451</v>
       </c>
       <c r="AE10" t="n">
-        <v>778846.1577601495</v>
+        <v>911537.1437728613</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.515907811584836e-06</v>
+        <v>2.276415436952131e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.86342592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>704514.1735809679</v>
+        <v>824541.3181215948</v>
       </c>
     </row>
   </sheetData>
@@ -21321,28 +21321,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>801.0174206588115</v>
+        <v>918.7196188308745</v>
       </c>
       <c r="AB2" t="n">
-        <v>1095.987373339927</v>
+        <v>1257.032713533448</v>
       </c>
       <c r="AC2" t="n">
-        <v>991.3878766563032</v>
+        <v>1137.063275610309</v>
       </c>
       <c r="AD2" t="n">
-        <v>801017.4206588115</v>
+        <v>918719.6188308746</v>
       </c>
       <c r="AE2" t="n">
-        <v>1095987.373339927</v>
+        <v>1257032.713533448</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.241173554918651e-06</v>
+        <v>1.903645904654456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.81828703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>991387.8766563032</v>
+        <v>1137063.275610309</v>
       </c>
     </row>
     <row r="3">
@@ -21427,28 +21427,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>626.5523145364434</v>
+        <v>728.5381287243459</v>
       </c>
       <c r="AB3" t="n">
-        <v>857.2765182860381</v>
+        <v>996.8180085545038</v>
       </c>
       <c r="AC3" t="n">
-        <v>775.4592505759682</v>
+        <v>901.6830968609231</v>
       </c>
       <c r="AD3" t="n">
-        <v>626552.3145364434</v>
+        <v>728538.1287243459</v>
       </c>
       <c r="AE3" t="n">
-        <v>857276.5182860382</v>
+        <v>996818.0085545038</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.44353167548025e-06</v>
+        <v>2.214012014175625e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.91782407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>775459.2505759682</v>
+        <v>901683.0968609231</v>
       </c>
     </row>
     <row r="4">
@@ -21533,28 +21533,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>573.0241113658177</v>
+        <v>667.2370744162114</v>
       </c>
       <c r="AB4" t="n">
-        <v>784.0368692103306</v>
+        <v>912.9432016384659</v>
       </c>
       <c r="AC4" t="n">
-        <v>709.2094908155528</v>
+        <v>825.8131837979211</v>
       </c>
       <c r="AD4" t="n">
-        <v>573024.1113658177</v>
+        <v>667237.0744162113</v>
       </c>
       <c r="AE4" t="n">
-        <v>784036.8692103305</v>
+        <v>912943.2016384659</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.513330909282452e-06</v>
+        <v>2.321066362094188e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>709209.4908155529</v>
+        <v>825813.1837979211</v>
       </c>
     </row>
     <row r="5">
@@ -21639,28 +21639,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>546.2528089225518</v>
+        <v>632.6076694894159</v>
       </c>
       <c r="AB5" t="n">
-        <v>747.4071921409455</v>
+        <v>865.5617220761017</v>
       </c>
       <c r="AC5" t="n">
-        <v>676.0756987155955</v>
+        <v>782.9537261446646</v>
       </c>
       <c r="AD5" t="n">
-        <v>546252.8089225518</v>
+        <v>632607.6694894159</v>
       </c>
       <c r="AE5" t="n">
-        <v>747407.1921409456</v>
+        <v>865561.7220761017</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.546798747028636e-06</v>
+        <v>2.372397549429499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.32060185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>676075.6987155955</v>
+        <v>782953.7261446647</v>
       </c>
     </row>
     <row r="6">
@@ -21745,28 +21745,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>526.4052586526896</v>
+        <v>612.7601192195538</v>
       </c>
       <c r="AB6" t="n">
-        <v>720.2508982495998</v>
+        <v>838.4054281847558</v>
       </c>
       <c r="AC6" t="n">
-        <v>651.511163399142</v>
+        <v>758.389190828211</v>
       </c>
       <c r="AD6" t="n">
-        <v>526405.2586526895</v>
+        <v>612760.1192195538</v>
       </c>
       <c r="AE6" t="n">
-        <v>720250.8982495998</v>
+        <v>838405.4281847558</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.568394749281967e-06</v>
+        <v>2.405520347674388e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.01388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>651511.163399142</v>
+        <v>758389.190828211</v>
       </c>
     </row>
     <row r="7">
@@ -21851,28 +21851,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>515.6542620957117</v>
+        <v>609.7818842915336</v>
       </c>
       <c r="AB7" t="n">
-        <v>705.5409104598492</v>
+        <v>834.3304757657869</v>
       </c>
       <c r="AC7" t="n">
-        <v>638.2050761984475</v>
+        <v>754.7031461488767</v>
       </c>
       <c r="AD7" t="n">
-        <v>515654.2620957117</v>
+        <v>609781.8842915336</v>
       </c>
       <c r="AE7" t="n">
-        <v>705540.9104598492</v>
+        <v>834330.4757657869</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.572153169563624e-06</v>
+        <v>2.411284812562311e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.96180555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>638205.0761984475</v>
+        <v>754703.1461488768</v>
       </c>
     </row>
   </sheetData>
@@ -40713,28 +40713,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>660.4134303004378</v>
+        <v>760.0155601256056</v>
       </c>
       <c r="AB2" t="n">
-        <v>903.6067907213325</v>
+        <v>1039.886818883972</v>
       </c>
       <c r="AC2" t="n">
-        <v>817.3678268349837</v>
+        <v>940.6414803800019</v>
       </c>
       <c r="AD2" t="n">
-        <v>660413.4303004377</v>
+        <v>760015.5601256056</v>
       </c>
       <c r="AE2" t="n">
-        <v>903606.7907213324</v>
+        <v>1039886.818883972</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.367681303939121e-06</v>
+        <v>2.1369750593912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>817367.8268349837</v>
+        <v>940641.4803800019</v>
       </c>
     </row>
     <row r="3">
@@ -40819,28 +40819,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.8791414335093</v>
+        <v>628.7276703140139</v>
       </c>
       <c r="AB3" t="n">
-        <v>734.5817267454141</v>
+        <v>860.252936030834</v>
       </c>
       <c r="AC3" t="n">
-        <v>664.4742777367599</v>
+        <v>778.1516031886292</v>
       </c>
       <c r="AD3" t="n">
-        <v>536879.1414335093</v>
+        <v>628727.670314014</v>
       </c>
       <c r="AE3" t="n">
-        <v>734581.7267454141</v>
+        <v>860252.936030834</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543069367552287e-06</v>
+        <v>2.411015449193104e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.14236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>664474.2777367599</v>
+        <v>778151.6031886293</v>
       </c>
     </row>
     <row r="4">
@@ -40925,28 +40925,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>486.7759564954267</v>
+        <v>571.0415661404116</v>
       </c>
       <c r="AB4" t="n">
-        <v>666.0283387166121</v>
+        <v>781.3242633692074</v>
       </c>
       <c r="AC4" t="n">
-        <v>602.4635288461423</v>
+        <v>706.7557722687404</v>
       </c>
       <c r="AD4" t="n">
-        <v>486775.9564954267</v>
+        <v>571041.5661404117</v>
       </c>
       <c r="AE4" t="n">
-        <v>666028.3387166121</v>
+        <v>781324.2633692074</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.609842726042592e-06</v>
+        <v>2.515347504705299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.18171296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>602463.5288461422</v>
+        <v>706755.7722687405</v>
       </c>
     </row>
     <row r="5">
@@ -41031,28 +41031,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>482.5794557917123</v>
+        <v>566.8450654366973</v>
       </c>
       <c r="AB5" t="n">
-        <v>660.2865013172452</v>
+        <v>775.5824259698405</v>
       </c>
       <c r="AC5" t="n">
-        <v>597.2696843494516</v>
+        <v>701.5619277720498</v>
       </c>
       <c r="AD5" t="n">
-        <v>482579.4557917123</v>
+        <v>566845.0654366972</v>
       </c>
       <c r="AE5" t="n">
-        <v>660286.5013172452</v>
+        <v>775582.4259698405</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.613607212981509e-06</v>
+        <v>2.521229441291477e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.13541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>597269.6843494516</v>
+        <v>701561.9277720498</v>
       </c>
     </row>
   </sheetData>
@@ -41328,28 +41328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.2574321377207</v>
+        <v>508.5879138471049</v>
       </c>
       <c r="AB2" t="n">
-        <v>576.3830032171036</v>
+        <v>695.8724210408225</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.3738183486882</v>
+        <v>629.4593338397626</v>
       </c>
       <c r="AD2" t="n">
-        <v>421257.4321377208</v>
+        <v>508587.9138471049</v>
       </c>
       <c r="AE2" t="n">
-        <v>576383.0032171035</v>
+        <v>695872.4210408225</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.635716986006362e-06</v>
+        <v>2.665688932593679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.43171296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>521373.8183486882</v>
+        <v>629459.3338397626</v>
       </c>
     </row>
     <row r="3">
@@ -41434,28 +41434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>402.745060636151</v>
+        <v>490.1607936915557</v>
       </c>
       <c r="AB3" t="n">
-        <v>551.0535598204656</v>
+        <v>670.6596222968338</v>
       </c>
       <c r="AC3" t="n">
-        <v>498.4617814797282</v>
+        <v>606.652809221515</v>
       </c>
       <c r="AD3" t="n">
-        <v>402745.060636151</v>
+        <v>490160.7936915557</v>
       </c>
       <c r="AE3" t="n">
-        <v>551053.5598204656</v>
+        <v>670659.6222968339</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.66956397445946e-06</v>
+        <v>2.720848561852856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.95717592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>498461.7814797282</v>
+        <v>606652.809221515</v>
       </c>
     </row>
   </sheetData>
@@ -41731,28 +41731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1303.083685765424</v>
+        <v>1444.136011632184</v>
       </c>
       <c r="AB2" t="n">
-        <v>1782.93658685917</v>
+        <v>1975.930601899506</v>
       </c>
       <c r="AC2" t="n">
-        <v>1612.775621376546</v>
+        <v>1787.350558490233</v>
       </c>
       <c r="AD2" t="n">
-        <v>1303083.685765424</v>
+        <v>1444136.011632184</v>
       </c>
       <c r="AE2" t="n">
-        <v>1782936.58685917</v>
+        <v>1975930.601899506</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.534815087377656e-07</v>
+        <v>1.408655278710881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.61689814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1612775.621376546</v>
+        <v>1787350.558490233</v>
       </c>
     </row>
     <row r="3">
@@ -41837,28 +41837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>905.7712565128411</v>
+        <v>1021.676062406774</v>
       </c>
       <c r="AB3" t="n">
-        <v>1239.316192968485</v>
+        <v>1397.902261751718</v>
       </c>
       <c r="AC3" t="n">
-        <v>1121.037594902774</v>
+        <v>1264.48843185828</v>
       </c>
       <c r="AD3" t="n">
-        <v>905771.2565128411</v>
+        <v>1021676.062406774</v>
       </c>
       <c r="AE3" t="n">
-        <v>1239316.192968485</v>
+        <v>1397902.261751718</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.214050672573381e-06</v>
+        <v>1.793615159676197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1121037.594902774</v>
+        <v>1264488.43185828</v>
       </c>
     </row>
     <row r="4">
@@ -41943,28 +41943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>802.9250161532565</v>
+        <v>910.5326264079682</v>
       </c>
       <c r="AB4" t="n">
-        <v>1098.597429652601</v>
+        <v>1245.830909315813</v>
       </c>
       <c r="AC4" t="n">
-        <v>993.7488328577323</v>
+        <v>1126.930555865374</v>
       </c>
       <c r="AD4" t="n">
-        <v>802925.0161532565</v>
+        <v>910532.6264079682</v>
       </c>
       <c r="AE4" t="n">
-        <v>1098597.429652601</v>
+        <v>1245830.909315813</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.311985681429964e-06</v>
+        <v>1.938302461875746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.43287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>993748.8328577323</v>
+        <v>1126930.555865374</v>
       </c>
     </row>
     <row r="5">
@@ -42049,28 +42049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>753.6961459499986</v>
+        <v>853.2624936206529</v>
       </c>
       <c r="AB5" t="n">
-        <v>1031.240317616029</v>
+        <v>1167.471387056267</v>
       </c>
       <c r="AC5" t="n">
-        <v>932.8201890576311</v>
+        <v>1056.049556431999</v>
       </c>
       <c r="AD5" t="n">
-        <v>753696.1459499986</v>
+        <v>853262.4936206529</v>
       </c>
       <c r="AE5" t="n">
-        <v>1031240.31761603</v>
+        <v>1167471.387056267</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.362338013472178e-06</v>
+        <v>2.012692030710243e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.53009259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>932820.1890576311</v>
+        <v>1056049.556431999</v>
       </c>
     </row>
     <row r="6">
@@ -42155,28 +42155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>717.5611099422204</v>
+        <v>817.0421167583032</v>
       </c>
       <c r="AB6" t="n">
-        <v>981.7987671849095</v>
+        <v>1117.913069502949</v>
       </c>
       <c r="AC6" t="n">
-        <v>888.0972708080051</v>
+        <v>1011.221015150434</v>
       </c>
       <c r="AD6" t="n">
-        <v>717561.1099422204</v>
+        <v>817042.1167583033</v>
       </c>
       <c r="AE6" t="n">
-        <v>981798.7671849094</v>
+        <v>1117913.069502949</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.395684662415427e-06</v>
+        <v>2.061957729762351e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.96875</v>
       </c>
       <c r="AH6" t="n">
-        <v>888097.2708080051</v>
+        <v>1011221.015150434</v>
       </c>
     </row>
     <row r="7">
@@ -42261,28 +42261,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>700.9256140471499</v>
+        <v>800.4066208632327</v>
       </c>
       <c r="AB7" t="n">
-        <v>959.0373477949914</v>
+        <v>1095.151650113031</v>
       </c>
       <c r="AC7" t="n">
-        <v>867.5081693388082</v>
+        <v>990.6319136812373</v>
       </c>
       <c r="AD7" t="n">
-        <v>700925.6140471499</v>
+        <v>800406.6208632326</v>
       </c>
       <c r="AE7" t="n">
-        <v>959037.3477949915</v>
+        <v>1095151.650113031</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413133490350847e-06</v>
+        <v>2.08773629321985e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.68518518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>867508.1693388082</v>
+        <v>990631.9136812373</v>
       </c>
     </row>
     <row r="8">
@@ -42367,28 +42367,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>685.1986656606883</v>
+        <v>784.5090802761789</v>
       </c>
       <c r="AB8" t="n">
-        <v>937.5190431886394</v>
+        <v>1073.399933731832</v>
       </c>
       <c r="AC8" t="n">
-        <v>848.0435415229564</v>
+        <v>970.9561505827343</v>
       </c>
       <c r="AD8" t="n">
-        <v>685198.6656606883</v>
+        <v>784509.0802761789</v>
       </c>
       <c r="AE8" t="n">
-        <v>937519.0431886395</v>
+        <v>1073399.933731832</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.428366594103992e-06</v>
+        <v>2.110241388301794e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.44212962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>848043.5415229563</v>
+        <v>970956.1505827343</v>
       </c>
     </row>
     <row r="9">
@@ -42473,28 +42473,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>669.6540638397822</v>
+        <v>760.8379645251948</v>
       </c>
       <c r="AB9" t="n">
-        <v>916.2502331978434</v>
+        <v>1041.012068865412</v>
       </c>
       <c r="AC9" t="n">
-        <v>828.8045969067193</v>
+        <v>941.6593380825112</v>
       </c>
       <c r="AD9" t="n">
-        <v>669654.0638397823</v>
+        <v>760837.9645251948</v>
       </c>
       <c r="AE9" t="n">
-        <v>916250.2331978434</v>
+        <v>1041012.068865412</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.44177172540676e-06</v>
+        <v>2.130045871973904e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.2337962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>828804.5969067194</v>
+        <v>941659.3380825112</v>
       </c>
     </row>
     <row r="10">
@@ -42579,28 +42579,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>657.4585990894625</v>
+        <v>748.6424997748751</v>
       </c>
       <c r="AB10" t="n">
-        <v>899.5638603005232</v>
+        <v>1024.325695968091</v>
       </c>
       <c r="AC10" t="n">
-        <v>813.7107480192482</v>
+        <v>926.5654891950397</v>
       </c>
       <c r="AD10" t="n">
-        <v>657458.5990894625</v>
+        <v>748642.4997748751</v>
       </c>
       <c r="AE10" t="n">
-        <v>899563.8603005232</v>
+        <v>1024325.695968091</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.45069001524042e-06</v>
+        <v>2.143221582185514e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.09490740740741</v>
       </c>
       <c r="AH10" t="n">
-        <v>813710.7480192481</v>
+        <v>926565.4891950397</v>
       </c>
     </row>
     <row r="11">
@@ -42685,28 +42685,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>645.2009825405949</v>
+        <v>736.3848832260076</v>
       </c>
       <c r="AB11" t="n">
-        <v>882.7924485704859</v>
+        <v>1007.554284238054</v>
       </c>
       <c r="AC11" t="n">
-        <v>798.5399762859014</v>
+        <v>911.3947174616928</v>
       </c>
       <c r="AD11" t="n">
-        <v>645200.9825405949</v>
+        <v>736384.8832260076</v>
       </c>
       <c r="AE11" t="n">
-        <v>882792.4485704859</v>
+        <v>1007554.284238054</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.456118539486995e-06</v>
+        <v>2.151241579705625e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.01388888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>798539.9762859014</v>
+        <v>911394.7174616929</v>
       </c>
     </row>
     <row r="12">
@@ -42791,28 +42791,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>624.8726688745587</v>
+        <v>724.2683348360698</v>
       </c>
       <c r="AB12" t="n">
-        <v>854.9783529907106</v>
+        <v>990.9758881865527</v>
       </c>
       <c r="AC12" t="n">
-        <v>773.3804189509315</v>
+        <v>896.3985402614215</v>
       </c>
       <c r="AD12" t="n">
-        <v>624872.6688745588</v>
+        <v>724268.3348360698</v>
       </c>
       <c r="AE12" t="n">
-        <v>854978.3529907106</v>
+        <v>990975.8881865527</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.463596608602175e-06</v>
+        <v>2.162289535473125e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.90393518518519</v>
       </c>
       <c r="AH12" t="n">
-        <v>773380.4189509315</v>
+        <v>896398.5402614216</v>
       </c>
     </row>
     <row r="13">
@@ -42897,28 +42897,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>618.8143601001573</v>
+        <v>718.2100260616685</v>
       </c>
       <c r="AB13" t="n">
-        <v>846.6891076518549</v>
+        <v>982.6866428476968</v>
       </c>
       <c r="AC13" t="n">
-        <v>765.8822875531872</v>
+        <v>888.9004088636774</v>
       </c>
       <c r="AD13" t="n">
-        <v>618814.3601001573</v>
+        <v>718210.0260616685</v>
       </c>
       <c r="AE13" t="n">
-        <v>846689.1076518549</v>
+        <v>982686.6428476968</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.467141767293816e-06</v>
+        <v>2.167527084874013e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21.85185185185185</v>
       </c>
       <c r="AH13" t="n">
-        <v>765882.2875531872</v>
+        <v>888900.4088636774</v>
       </c>
     </row>
     <row r="14">
@@ -43003,28 +43003,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>621.1151270076515</v>
+        <v>720.5107929691626</v>
       </c>
       <c r="AB14" t="n">
-        <v>849.8371184373607</v>
+        <v>985.8346536332026</v>
       </c>
       <c r="AC14" t="n">
-        <v>768.7298566075854</v>
+        <v>891.7479779180754</v>
       </c>
       <c r="AD14" t="n">
-        <v>621115.1270076515</v>
+        <v>720510.7929691626</v>
       </c>
       <c r="AE14" t="n">
-        <v>849837.1184373607</v>
+        <v>985834.6536332027</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.466643229352804e-06</v>
+        <v>2.166790554489513e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>21.85763888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>768729.8566075853</v>
+        <v>891747.9779180754</v>
       </c>
     </row>
   </sheetData>
@@ -43300,28 +43300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1737.130970039766</v>
+        <v>1907.454693798735</v>
       </c>
       <c r="AB2" t="n">
-        <v>2376.819230018051</v>
+        <v>2609.863663017443</v>
       </c>
       <c r="AC2" t="n">
-        <v>2149.978938591868</v>
+        <v>2360.781937985714</v>
       </c>
       <c r="AD2" t="n">
-        <v>1737130.970039766</v>
+        <v>1907454.693798736</v>
       </c>
       <c r="AE2" t="n">
-        <v>2376819.230018051</v>
+        <v>2609863.663017443</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.056425797080259e-07</v>
+        <v>1.169929191923263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.34490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>2149978.938591869</v>
+        <v>2360781.937985714</v>
       </c>
     </row>
     <row r="3">
@@ -43406,28 +43406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1098.882553489143</v>
+        <v>1218.203061913015</v>
       </c>
       <c r="AB3" t="n">
-        <v>1503.53958896061</v>
+        <v>1666.799172635466</v>
       </c>
       <c r="AC3" t="n">
-        <v>1360.043880821275</v>
+        <v>1507.722198966468</v>
       </c>
       <c r="AD3" t="n">
-        <v>1098882.553489143</v>
+        <v>1218203.061913015</v>
       </c>
       <c r="AE3" t="n">
-        <v>1503539.58896061</v>
+        <v>1666799.172635466</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.095808422369712e-06</v>
+        <v>1.591299038030389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.18865740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>1360043.880821276</v>
+        <v>1507722.198966468</v>
       </c>
     </row>
     <row r="4">
@@ -43512,28 +43512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>950.0226017635284</v>
+        <v>1060.899378692715</v>
       </c>
       <c r="AB4" t="n">
-        <v>1299.862835772047</v>
+        <v>1451.56933350473</v>
       </c>
       <c r="AC4" t="n">
-        <v>1175.80575109491</v>
+        <v>1313.033593605393</v>
       </c>
       <c r="AD4" t="n">
-        <v>950022.6017635284</v>
+        <v>1060899.378692715</v>
       </c>
       <c r="AE4" t="n">
-        <v>1299862.835772047</v>
+        <v>1451569.33350473</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.20662230930232e-06</v>
+        <v>1.752219531135318e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.60185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1175805.75109491</v>
+        <v>1313033.593605393</v>
       </c>
     </row>
     <row r="5">
@@ -43618,28 +43618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>885.0436804556101</v>
+        <v>987.3062231980692</v>
       </c>
       <c r="AB5" t="n">
-        <v>1210.955808970864</v>
+        <v>1350.875931456076</v>
       </c>
       <c r="AC5" t="n">
-        <v>1095.383886149836</v>
+        <v>1221.950228524185</v>
       </c>
       <c r="AD5" t="n">
-        <v>885043.6804556102</v>
+        <v>987306.2231980693</v>
       </c>
       <c r="AE5" t="n">
-        <v>1210955.808970864</v>
+        <v>1350875.931456076</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.265925887521072e-06</v>
+        <v>1.838338349940509e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.40393518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>1095383.886149836</v>
+        <v>1221950.228524185</v>
       </c>
     </row>
     <row r="6">
@@ -43724,28 +43724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>843.2569102653381</v>
+        <v>945.6047043538181</v>
       </c>
       <c r="AB6" t="n">
-        <v>1153.781306494341</v>
+        <v>1293.818073632203</v>
       </c>
       <c r="AC6" t="n">
-        <v>1043.666037944755</v>
+        <v>1170.337892569816</v>
       </c>
       <c r="AD6" t="n">
-        <v>843256.9102653381</v>
+        <v>945604.7043538181</v>
       </c>
       <c r="AE6" t="n">
-        <v>1153781.306494341</v>
+        <v>1293818.073632203</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.30184965722514e-06</v>
+        <v>1.890505735229341e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.72685185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1043666.037944755</v>
+        <v>1170337.892569816</v>
       </c>
     </row>
     <row r="7">
@@ -43830,28 +43830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>816.2858856371641</v>
+        <v>918.4630875250516</v>
       </c>
       <c r="AB7" t="n">
-        <v>1116.878360720444</v>
+        <v>1256.681716083459</v>
       </c>
       <c r="AC7" t="n">
-        <v>1010.285057521909</v>
+        <v>1136.745776864319</v>
       </c>
       <c r="AD7" t="n">
-        <v>816285.8856371641</v>
+        <v>918463.0875250516</v>
       </c>
       <c r="AE7" t="n">
-        <v>1116878.360720444</v>
+        <v>1256681.716083459</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.331314621380631e-06</v>
+        <v>1.93329384322256e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.20023148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>1010285.057521909</v>
+        <v>1136745.776864319</v>
       </c>
     </row>
     <row r="8">
@@ -43936,28 +43936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>805.0241149958875</v>
+        <v>898.8430157522117</v>
       </c>
       <c r="AB8" t="n">
-        <v>1101.469509294794</v>
+        <v>1229.836668307382</v>
       </c>
       <c r="AC8" t="n">
-        <v>996.3468052498635</v>
+        <v>1112.462782770729</v>
       </c>
       <c r="AD8" t="n">
-        <v>805024.1149958875</v>
+        <v>898843.0157522117</v>
       </c>
       <c r="AE8" t="n">
-        <v>1101469.509294794</v>
+        <v>1229836.668307382</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.342417361497193e-06</v>
+        <v>1.94941689840841e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.00925925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>996346.8052498634</v>
+        <v>1112462.782770729</v>
       </c>
     </row>
     <row r="9">
@@ -44042,28 +44042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>779.7271449012375</v>
+        <v>881.9895981351456</v>
       </c>
       <c r="AB9" t="n">
-        <v>1066.857078787738</v>
+        <v>1206.777078803402</v>
       </c>
       <c r="AC9" t="n">
-        <v>965.0377365315496</v>
+        <v>1091.603968124672</v>
       </c>
       <c r="AD9" t="n">
-        <v>779727.1449012375</v>
+        <v>881989.5981351456</v>
       </c>
       <c r="AE9" t="n">
-        <v>1066857.078787738</v>
+        <v>1206777.078803401</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.359071471672036e-06</v>
+        <v>1.973601481187185e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.73148148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>965037.7365315496</v>
+        <v>1091603.968124672</v>
       </c>
     </row>
     <row r="10">
@@ -44148,28 +44148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>768.4769263347935</v>
+        <v>870.7393795687015</v>
       </c>
       <c r="AB10" t="n">
-        <v>1051.464033420515</v>
+        <v>1191.384033436179</v>
       </c>
       <c r="AC10" t="n">
-        <v>951.1137818098994</v>
+        <v>1077.680013403022</v>
       </c>
       <c r="AD10" t="n">
-        <v>768476.9263347934</v>
+        <v>870739.3795687015</v>
       </c>
       <c r="AE10" t="n">
-        <v>1051464.033420515</v>
+        <v>1191384.033436179</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.36803906945849e-06</v>
+        <v>1.986623948837295e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.58101851851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>951113.7818098994</v>
+        <v>1077680.013403022</v>
       </c>
     </row>
     <row r="11">
@@ -44254,28 +44254,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>756.3312856288876</v>
+        <v>850.06484553064</v>
       </c>
       <c r="AB11" t="n">
-        <v>1034.845831978843</v>
+        <v>1163.096223869233</v>
       </c>
       <c r="AC11" t="n">
-        <v>936.0815981900288</v>
+        <v>1052.091952678956</v>
       </c>
       <c r="AD11" t="n">
-        <v>756331.2856288876</v>
+        <v>850064.84553064</v>
       </c>
       <c r="AE11" t="n">
-        <v>1034845.831978843</v>
+        <v>1163096.223869233</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.376899910128439e-06</v>
+        <v>1.999491387110618e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.4363425925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>936081.5981900288</v>
+        <v>1052091.952678956</v>
       </c>
     </row>
     <row r="12">
@@ -44360,28 +44360,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>746.9804802022786</v>
+        <v>840.7140401040311</v>
       </c>
       <c r="AB12" t="n">
-        <v>1022.051647465736</v>
+        <v>1150.302039356127</v>
       </c>
       <c r="AC12" t="n">
-        <v>924.5084726901022</v>
+        <v>1040.518827179029</v>
       </c>
       <c r="AD12" t="n">
-        <v>746980.4802022786</v>
+        <v>840714.0401040311</v>
       </c>
       <c r="AE12" t="n">
-        <v>1022051.647465736</v>
+        <v>1150302.039356127</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.384533043958575e-06</v>
+        <v>2.01057598755089e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.30902777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>924508.4726901022</v>
+        <v>1040518.827179029</v>
       </c>
     </row>
     <row r="13">
@@ -44466,28 +44466,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>740.2911840309815</v>
+        <v>834.0247439327341</v>
       </c>
       <c r="AB13" t="n">
-        <v>1012.899057333248</v>
+        <v>1141.149449223639</v>
       </c>
       <c r="AC13" t="n">
-        <v>916.2293929141177</v>
+        <v>1032.239747403045</v>
       </c>
       <c r="AD13" t="n">
-        <v>740291.1840309815</v>
+        <v>834024.743932734</v>
       </c>
       <c r="AE13" t="n">
-        <v>1012899.057333248</v>
+        <v>1141149.449223639</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.389817521225592e-06</v>
+        <v>2.018249941701848e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.22800925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>916229.3929141178</v>
+        <v>1032239.747403045</v>
       </c>
     </row>
     <row r="14">
@@ -44572,28 +44572,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>729.2251250676522</v>
+        <v>822.9586849694045</v>
       </c>
       <c r="AB14" t="n">
-        <v>997.7579872595551</v>
+        <v>1126.008379149946</v>
       </c>
       <c r="AC14" t="n">
-        <v>902.5333653176326</v>
+        <v>1018.54371980656</v>
       </c>
       <c r="AD14" t="n">
-        <v>729225.1250676522</v>
+        <v>822958.6849694046</v>
       </c>
       <c r="AE14" t="n">
-        <v>997757.987259555</v>
+        <v>1126008.379149945</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.395208755609115e-06</v>
+        <v>2.026078925229592e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>22.14120370370371</v>
       </c>
       <c r="AH14" t="n">
-        <v>902533.3653176326</v>
+        <v>1018543.71980656</v>
       </c>
     </row>
     <row r="15">
@@ -44678,28 +44678,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>721.110353159958</v>
+        <v>814.8439130617105</v>
       </c>
       <c r="AB15" t="n">
-        <v>986.6549983369777</v>
+        <v>1114.905390227368</v>
       </c>
       <c r="AC15" t="n">
-        <v>892.4900300746832</v>
+        <v>1008.50038456361</v>
       </c>
       <c r="AD15" t="n">
-        <v>721110.353159958</v>
+        <v>814843.9130617105</v>
       </c>
       <c r="AE15" t="n">
-        <v>986654.9983369777</v>
+        <v>1114905.390227368</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.400119582968364e-06</v>
+        <v>2.033210276561795e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22.06018518518519</v>
       </c>
       <c r="AH15" t="n">
-        <v>892490.0300746833</v>
+        <v>1008500.38456361</v>
       </c>
     </row>
     <row r="16">
@@ -44784,28 +44784,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>702.3527995091847</v>
+        <v>804.5299118885212</v>
       </c>
       <c r="AB16" t="n">
-        <v>960.9900859071264</v>
+        <v>1100.793318800593</v>
       </c>
       <c r="AC16" t="n">
-        <v>869.2745408662062</v>
+        <v>995.7351494273897</v>
       </c>
       <c r="AD16" t="n">
-        <v>702352.7995091847</v>
+        <v>804529.9118885212</v>
       </c>
       <c r="AE16" t="n">
-        <v>960990.0859071264</v>
+        <v>1100793.318800593</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.405350681677129e-06</v>
+        <v>2.04080671602436e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>869274.5408662062</v>
+        <v>995735.1494273897</v>
       </c>
     </row>
     <row r="17">
@@ -44890,28 +44890,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>694.6231188043373</v>
+        <v>796.8002311836738</v>
       </c>
       <c r="AB17" t="n">
-        <v>950.4139957573087</v>
+        <v>1090.217228650775</v>
       </c>
       <c r="AC17" t="n">
-        <v>859.7078179166513</v>
+        <v>986.1684264778348</v>
       </c>
       <c r="AD17" t="n">
-        <v>694623.1188043373</v>
+        <v>796800.2311836737</v>
       </c>
       <c r="AE17" t="n">
-        <v>950413.9957573087</v>
+        <v>1090217.228650775</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.407218931215973e-06</v>
+        <v>2.043519730118132e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>21.95023148148148</v>
       </c>
       <c r="AH17" t="n">
-        <v>859707.8179166513</v>
+        <v>986168.4264778348</v>
       </c>
     </row>
     <row r="18">
@@ -44996,28 +44996,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>687.4940482406943</v>
+        <v>789.6711606200307</v>
       </c>
       <c r="AB18" t="n">
-        <v>940.6596868997361</v>
+        <v>1080.462919793202</v>
       </c>
       <c r="AC18" t="n">
-        <v>850.8844466061871</v>
+        <v>977.3450551673704</v>
       </c>
       <c r="AD18" t="n">
-        <v>687494.0482406942</v>
+        <v>789671.1606200307</v>
       </c>
       <c r="AE18" t="n">
-        <v>940659.6868997362</v>
+        <v>1080462.919793202</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.409033802196565e-06</v>
+        <v>2.046155229523512e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21.9212962962963</v>
       </c>
       <c r="AH18" t="n">
-        <v>850884.4466061871</v>
+        <v>977345.0551673705</v>
       </c>
     </row>
     <row r="19">
@@ -45102,28 +45102,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>686.1849244943014</v>
+        <v>788.3620368736379</v>
       </c>
       <c r="AB19" t="n">
-        <v>938.8684860354577</v>
+        <v>1078.671718928924</v>
       </c>
       <c r="AC19" t="n">
-        <v>849.2641954384291</v>
+        <v>975.7248039996127</v>
       </c>
       <c r="AD19" t="n">
-        <v>686184.9244943014</v>
+        <v>788362.0368736378</v>
       </c>
       <c r="AE19" t="n">
-        <v>938868.4860354577</v>
+        <v>1078671.718928924</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.411382458759684e-06</v>
+        <v>2.049565875812826e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21.88657407407408</v>
       </c>
       <c r="AH19" t="n">
-        <v>849264.195438429</v>
+        <v>975724.8039996127</v>
       </c>
     </row>
   </sheetData>
@@ -45399,28 +45399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.0432515676519</v>
+        <v>461.376201471903</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.9412578340634</v>
+        <v>631.2752733353204</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.750372875886</v>
+        <v>571.0272472486074</v>
       </c>
       <c r="AD2" t="n">
-        <v>369043.2515676519</v>
+        <v>461376.201471903</v>
       </c>
       <c r="AE2" t="n">
-        <v>504941.2578340634</v>
+        <v>631275.2733353204</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.654281698460729e-06</v>
+        <v>2.757589030815576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.99305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>456750.372875886</v>
+        <v>571027.2472486075</v>
       </c>
     </row>
   </sheetData>
@@ -45696,28 +45696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>878.4379017060862</v>
+        <v>997.4906754887528</v>
       </c>
       <c r="AB2" t="n">
-        <v>1201.917491059375</v>
+        <v>1364.810748386514</v>
       </c>
       <c r="AC2" t="n">
-        <v>1087.208172614461</v>
+        <v>1234.55512608442</v>
       </c>
       <c r="AD2" t="n">
-        <v>878437.9017060862</v>
+        <v>997490.6754887528</v>
       </c>
       <c r="AE2" t="n">
-        <v>1201917.491059375</v>
+        <v>1364810.748386514</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.184164832412561e-06</v>
+        <v>1.802188299658813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.72685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1087208.172614461</v>
+        <v>1234555.12608442</v>
       </c>
     </row>
     <row r="3">
@@ -45802,28 +45802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>678.6636232330756</v>
+        <v>773.8888635968457</v>
       </c>
       <c r="AB3" t="n">
-        <v>928.5775098334556</v>
+        <v>1058.868884740276</v>
       </c>
       <c r="AC3" t="n">
-        <v>839.9553755616702</v>
+        <v>957.8119245124767</v>
       </c>
       <c r="AD3" t="n">
-        <v>678663.6232330756</v>
+        <v>773888.8635968457</v>
       </c>
       <c r="AE3" t="n">
-        <v>928577.5098334556</v>
+        <v>1058868.884740276</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.397447362919078e-06</v>
+        <v>2.126784395134272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.34606481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>839955.3755616702</v>
+        <v>957811.9245124767</v>
       </c>
     </row>
     <row r="4">
@@ -45908,28 +45908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>619.5442362138775</v>
+        <v>706.9122764564032</v>
       </c>
       <c r="AB4" t="n">
-        <v>847.6877563505084</v>
+        <v>967.2285634162372</v>
       </c>
       <c r="AC4" t="n">
-        <v>766.7856266216536</v>
+        <v>874.9176268376054</v>
       </c>
       <c r="AD4" t="n">
-        <v>619544.2362138776</v>
+        <v>706912.2764564032</v>
       </c>
       <c r="AE4" t="n">
-        <v>847687.7563505084</v>
+        <v>967228.5634162372</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.473989219236466e-06</v>
+        <v>2.243273953102586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.07870370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>766785.6266216536</v>
+        <v>874917.6268376055</v>
       </c>
     </row>
     <row r="5">
@@ -46014,28 +46014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>581.3935896456389</v>
+        <v>676.4481483002655</v>
       </c>
       <c r="AB5" t="n">
-        <v>795.4883586281042</v>
+        <v>925.5461992905289</v>
       </c>
       <c r="AC5" t="n">
-        <v>719.5680661555607</v>
+        <v>837.2133690424895</v>
       </c>
       <c r="AD5" t="n">
-        <v>581393.5896456389</v>
+        <v>676448.1483002655</v>
       </c>
       <c r="AE5" t="n">
-        <v>795488.3586281042</v>
+        <v>925546.1992905289</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.514023784637497e-06</v>
+        <v>2.304202823284171e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.47106481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>719568.0661555607</v>
+        <v>837213.3690424894</v>
       </c>
     </row>
     <row r="6">
@@ -46120,28 +46120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>560.1694130649236</v>
+        <v>647.4521124528776</v>
       </c>
       <c r="AB6" t="n">
-        <v>766.4485038857825</v>
+        <v>885.8725438293136</v>
       </c>
       <c r="AC6" t="n">
-        <v>693.2997343921542</v>
+        <v>801.3261115761674</v>
       </c>
       <c r="AD6" t="n">
-        <v>560169.4130649236</v>
+        <v>647452.1124528776</v>
       </c>
       <c r="AE6" t="n">
-        <v>766448.5038857826</v>
+        <v>885872.5438293136</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.536245613890932e-06</v>
+        <v>2.338022372371746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.14699074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>693299.7343921541</v>
+        <v>801326.1115761674</v>
       </c>
     </row>
     <row r="7">
@@ -46226,28 +46226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>534.9939677357731</v>
+        <v>630.1337777364203</v>
       </c>
       <c r="AB7" t="n">
-        <v>732.0023489241775</v>
+        <v>862.1768342392517</v>
       </c>
       <c r="AC7" t="n">
-        <v>662.1410721146027</v>
+        <v>779.8918872522436</v>
       </c>
       <c r="AD7" t="n">
-        <v>534993.9677357732</v>
+        <v>630133.7777364203</v>
       </c>
       <c r="AE7" t="n">
-        <v>732002.3489241775</v>
+        <v>862176.8342392517</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.549355317392297e-06</v>
+        <v>2.357974116939284e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.95601851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>662141.0721146027</v>
+        <v>779891.8872522436</v>
       </c>
     </row>
     <row r="8">
@@ -46332,28 +46332,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>535.1042902646686</v>
+        <v>630.2441002653159</v>
       </c>
       <c r="AB8" t="n">
-        <v>732.1532970752988</v>
+        <v>862.3277823903729</v>
       </c>
       <c r="AC8" t="n">
-        <v>662.2776139860379</v>
+        <v>780.028429123679</v>
       </c>
       <c r="AD8" t="n">
-        <v>535104.2902646686</v>
+        <v>630244.1002653159</v>
       </c>
       <c r="AE8" t="n">
-        <v>732153.2970752988</v>
+        <v>862327.7823903729</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.550589863461933e-06</v>
+        <v>2.359852980777483e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.9386574074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>662277.6139860379</v>
+        <v>780028.4291236789</v>
       </c>
     </row>
   </sheetData>
@@ -46629,28 +46629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1122.709477253376</v>
+        <v>1253.369015701875</v>
       </c>
       <c r="AB2" t="n">
-        <v>1536.140637224523</v>
+        <v>1714.914782021771</v>
       </c>
       <c r="AC2" t="n">
-        <v>1389.533530794738</v>
+        <v>1551.245722123627</v>
       </c>
       <c r="AD2" t="n">
-        <v>1122709.477253376</v>
+        <v>1253369.015701875</v>
       </c>
       <c r="AE2" t="n">
-        <v>1536140.637224523</v>
+        <v>1714914.782021771</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.037820435142854e-06</v>
+        <v>1.54937322609866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1389533.530794739</v>
+        <v>1551245.722123627</v>
       </c>
     </row>
     <row r="3">
@@ -46735,28 +46735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>811.3677516199434</v>
+        <v>917.528626609349</v>
       </c>
       <c r="AB3" t="n">
-        <v>1110.149152785323</v>
+        <v>1255.403145433088</v>
       </c>
       <c r="AC3" t="n">
-        <v>1004.198075747613</v>
+        <v>1135.589231202334</v>
       </c>
       <c r="AD3" t="n">
-        <v>811367.7516199434</v>
+        <v>917528.6266093489</v>
       </c>
       <c r="AE3" t="n">
-        <v>1110149.152785323</v>
+        <v>1255403.145433088</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.283238705582394e-06</v>
+        <v>1.915760786546074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.52662037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1004198.075747613</v>
+        <v>1135589.231202334</v>
       </c>
     </row>
     <row r="4">
@@ -46841,28 +46841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>725.7813190974396</v>
+        <v>831.7715123777019</v>
       </c>
       <c r="AB4" t="n">
-        <v>993.0460200011137</v>
+        <v>1138.066478404483</v>
       </c>
       <c r="AC4" t="n">
-        <v>898.2711016010493</v>
+        <v>1029.451010991893</v>
       </c>
       <c r="AD4" t="n">
-        <v>725781.3190974395</v>
+        <v>831771.5123777019</v>
       </c>
       <c r="AE4" t="n">
-        <v>993046.0200011136</v>
+        <v>1138066.478404483</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.371874547719922e-06</v>
+        <v>2.048086183146778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.87731481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>898271.1016010493</v>
+        <v>1029451.010991893</v>
       </c>
     </row>
     <row r="5">
@@ -46947,28 +46947,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>690.7347739022961</v>
+        <v>788.5588355380781</v>
       </c>
       <c r="AB5" t="n">
-        <v>945.0937907206658</v>
+        <v>1078.940987543756</v>
       </c>
       <c r="AC5" t="n">
-        <v>854.8953657817508</v>
+        <v>975.9683739957655</v>
       </c>
       <c r="AD5" t="n">
-        <v>690734.7739022961</v>
+        <v>788558.8355380781</v>
       </c>
       <c r="AE5" t="n">
-        <v>945093.7907206657</v>
+        <v>1078940.987543756</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.417154671417254e-06</v>
+        <v>2.115685364041135e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.11342592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>854895.3657817508</v>
+        <v>975968.3739957656</v>
       </c>
     </row>
     <row r="6">
@@ -47053,28 +47053,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>663.306716466542</v>
+        <v>761.2160294483446</v>
       </c>
       <c r="AB6" t="n">
-        <v>907.5655124965732</v>
+        <v>1041.529353972312</v>
       </c>
       <c r="AC6" t="n">
-        <v>820.9487337600965</v>
+        <v>942.1272542248237</v>
       </c>
       <c r="AD6" t="n">
-        <v>663306.716466542</v>
+        <v>761216.0294483446</v>
       </c>
       <c r="AE6" t="n">
-        <v>907565.5124965732</v>
+        <v>1041529.353972312</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.439455132338191e-06</v>
+        <v>2.148977960631606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.75462962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>820948.7337600965</v>
+        <v>942127.2542248237</v>
       </c>
     </row>
     <row r="7">
@@ -47159,28 +47159,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>641.487330591934</v>
+        <v>731.2305119292566</v>
       </c>
       <c r="AB7" t="n">
-        <v>877.711266139567</v>
+        <v>1000.501846035026</v>
       </c>
       <c r="AC7" t="n">
-        <v>793.943734774705</v>
+        <v>905.0153540626034</v>
       </c>
       <c r="AD7" t="n">
-        <v>641487.330591934</v>
+        <v>731230.5119292566</v>
       </c>
       <c r="AE7" t="n">
-        <v>877711.266139567</v>
+        <v>1000501.846035026</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46356679820702e-06</v>
+        <v>2.184974524457851e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.37847222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>793943.734774705</v>
+        <v>905015.3540626033</v>
       </c>
     </row>
     <row r="8">
@@ -47265,28 +47265,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>624.3032507610646</v>
+        <v>714.0464320983873</v>
       </c>
       <c r="AB8" t="n">
-        <v>854.1992500068742</v>
+        <v>976.9898299023336</v>
       </c>
       <c r="AC8" t="n">
-        <v>772.6756724623943</v>
+        <v>883.7472917502926</v>
       </c>
       <c r="AD8" t="n">
-        <v>624303.2507610647</v>
+        <v>714046.4320983873</v>
       </c>
       <c r="AE8" t="n">
-        <v>854199.2500068742</v>
+        <v>976989.8299023336</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.478735639645626e-06</v>
+        <v>2.20762025005746e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.15277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>772675.6724623943</v>
+        <v>883747.2917502925</v>
       </c>
     </row>
     <row r="9">
@@ -47371,28 +47371,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>601.740415363307</v>
+        <v>699.5643874905379</v>
       </c>
       <c r="AB9" t="n">
-        <v>823.3277832136162</v>
+        <v>957.1748575671576</v>
       </c>
       <c r="AC9" t="n">
-        <v>744.7505351315091</v>
+        <v>865.8234325642973</v>
       </c>
       <c r="AD9" t="n">
-        <v>601740.415363307</v>
+        <v>699564.3874905379</v>
       </c>
       <c r="AE9" t="n">
-        <v>823327.7832136161</v>
+        <v>957174.8575671576</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.489716069642229e-06</v>
+        <v>2.224013051424342e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.98495370370371</v>
       </c>
       <c r="AH9" t="n">
-        <v>744750.5351315091</v>
+        <v>865823.4325642972</v>
       </c>
     </row>
     <row r="10">
@@ -47477,28 +47477,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>587.4252946310186</v>
+        <v>685.2492667582496</v>
       </c>
       <c r="AB10" t="n">
-        <v>803.7412034891443</v>
+        <v>937.5882778426857</v>
       </c>
       <c r="AC10" t="n">
-        <v>727.0332710860035</v>
+        <v>848.1061685187919</v>
       </c>
       <c r="AD10" t="n">
-        <v>587425.2946310185</v>
+        <v>685249.2667582496</v>
       </c>
       <c r="AE10" t="n">
-        <v>803741.2034891442</v>
+        <v>937588.2778426857</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.497640091289262e-06</v>
+        <v>2.235842908080854e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.86921296296296</v>
       </c>
       <c r="AH10" t="n">
-        <v>727033.2710860035</v>
+        <v>848106.1685187919</v>
       </c>
     </row>
     <row r="11">
@@ -47583,28 +47583,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>586.0742955770245</v>
+        <v>683.8982677042554</v>
       </c>
       <c r="AB11" t="n">
-        <v>801.8927069815977</v>
+        <v>935.7397813351391</v>
       </c>
       <c r="AC11" t="n">
-        <v>725.3611924907561</v>
+        <v>846.4340899235443</v>
       </c>
       <c r="AD11" t="n">
-        <v>586074.2955770245</v>
+        <v>683898.2677042554</v>
       </c>
       <c r="AE11" t="n">
-        <v>801892.7069815977</v>
+        <v>935739.7813351392</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.499111695309426e-06</v>
+        <v>2.238039881459921e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.85185185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>725361.1924907562</v>
+        <v>846434.0899235443</v>
       </c>
     </row>
   </sheetData>
